--- a/US electricity generation.xlsx
+++ b/US electricity generation.xlsx
@@ -5,19 +5,21 @@
   <sheets>
     <sheet state="visible" name="By year" sheetId="1" r:id="rId4"/>
     <sheet state="visible" name="By state" sheetId="2" r:id="rId5"/>
+    <sheet state="visible" name="State View 2" sheetId="3" r:id="rId6"/>
+    <sheet state="visible" name="Emissions" sheetId="4" r:id="rId7"/>
   </sheets>
   <definedNames/>
   <calcPr/>
   <extLst>
     <ext uri="GoogleSheetsCustomDataVersion1">
-      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId6" roundtripDataSignature="AMtx7mgZ3Ngkip3Md7DSt6qo57b7cbZIsQ=="/>
+      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId8" roundtripDataSignature="AMtx7mi6RtGVOL3IKJavDSEVGJgu7gScSw=="/>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="236" uniqueCount="81">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1152" uniqueCount="100">
   <si>
     <t>U.S. Electricity Generation Fuel Shares</t>
   </si>
@@ -79,19 +81,10 @@
     <t>              - </t>
   </si>
   <si>
-    <t>                           - </t>
-  </si>
-  <si>
     <t>                    - </t>
   </si>
   <si>
     <t>               - </t>
-  </si>
-  <si>
-    <t>       0.0</t>
-  </si>
-  <si>
-    <t> 0.0</t>
   </si>
   <si>
     <t>State Electricity Generation Fuel Shares 2021</t>
@@ -175,7 +168,7 @@
     <t>Massachusetts</t>
   </si>
   <si>
-    <t>Michigan1</t>
+    <t>Michigan</t>
   </si>
   <si>
     <t>Minnesota</t>
@@ -205,7 +198,7 @@
     <t>New Mexico</t>
   </si>
   <si>
-    <t>New York2</t>
+    <t>New York</t>
   </si>
   <si>
     <t>North Carolina</t>
@@ -261,12 +254,78 @@
   <si>
     <t>Wyoming</t>
   </si>
+  <si>
+    <t>State</t>
+  </si>
+  <si>
+    <t>Type</t>
+  </si>
+  <si>
+    <t>Data</t>
+  </si>
+  <si>
+    <t>SOLAR</t>
+  </si>
+  <si>
+    <t>WIND</t>
+  </si>
+  <si>
+    <t>HYDRO</t>
+  </si>
+  <si>
+    <t>GEOTHERMAL</t>
+  </si>
+  <si>
+    <t>NUCLEAR</t>
+  </si>
+  <si>
+    <t>COAL</t>
+  </si>
+  <si>
+    <t>NATURAL GAS</t>
+  </si>
+  <si>
+    <t>PETROLEUM</t>
+  </si>
+  <si>
+    <t>OTHER</t>
+  </si>
+  <si>
+    <t>Energy Type</t>
+  </si>
+  <si>
+    <t>Emissions</t>
+  </si>
+  <si>
+    <t>Coal</t>
+  </si>
+  <si>
+    <t>Natural Gas</t>
+  </si>
+  <si>
+    <t>Oil</t>
+  </si>
+  <si>
+    <t>Other</t>
+  </si>
+  <si>
+    <t>Hydro</t>
+  </si>
+  <si>
+    <t>Solar</t>
+  </si>
+  <si>
+    <t>Wind</t>
+  </si>
+  <si>
+    <t>Nuclear</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="6">
+  <fonts count="7">
     <font>
       <sz val="12.0"/>
       <color theme="1"/>
@@ -298,8 +357,14 @@
       <color rgb="FF031927"/>
       <name val="Arial"/>
     </font>
+    <font>
+      <u/>
+      <sz val="12.0"/>
+      <color rgb="FF0563C1"/>
+      <name val="Calibri"/>
+    </font>
   </fonts>
-  <fills count="6">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -330,6 +395,12 @@
         <bgColor rgb="FFFFFF00"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+        <bgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border/>
@@ -337,7 +408,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="36">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -360,11 +431,11 @@
       <alignment readingOrder="0"/>
     </xf>
     <xf borderId="0" fillId="2" fontId="3" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="0" fillId="3" fontId="3" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="0" fillId="3" fontId="3" numFmtId="10" xfId="0" applyFont="1" applyNumberFormat="1"/>
     <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
+    <xf borderId="0" fillId="3" fontId="3" numFmtId="0" xfId="0" applyFont="1"/>
+    <xf borderId="0" fillId="3" fontId="3" numFmtId="10" xfId="0" applyFont="1" applyNumberFormat="1"/>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
@@ -382,6 +453,36 @@
     <xf borderId="0" fillId="3" fontId="5" numFmtId="0" xfId="0" applyFont="1"/>
     <xf borderId="0" fillId="5" fontId="5" numFmtId="0" xfId="0" applyFill="1" applyFont="1"/>
     <xf borderId="0" fillId="5" fontId="2" numFmtId="0" xfId="0" applyFont="1"/>
+    <xf borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="right" vertical="bottom"/>
+    </xf>
+    <xf borderId="0" fillId="6" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf borderId="0" fillId="5" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf borderId="0" fillId="5" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="right" vertical="bottom"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="right" vertical="bottom"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle xfId="0" name="Normal" builtinId="0"/>
@@ -395,6 +496,14 @@
 </file>
 
 <file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
+</file>
+
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
 </file>
 
@@ -704,22 +813,22 @@
       <c r="J3" s="6">
         <v>32.0</v>
       </c>
-      <c r="K3" s="6" t="s">
+      <c r="K3" s="12">
+        <v>0.0</v>
+      </c>
+      <c r="L3" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="L3" s="6" t="s">
+      <c r="M3" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="M3" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="N3" s="12">
+      <c r="N3" s="13">
         <f t="shared" ref="N3:N75" si="3">sum(J3:M3)</f>
         <v>32</v>
       </c>
-      <c r="O3" s="13"/>
+      <c r="O3" s="14"/>
       <c r="P3" s="6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="Q3" s="5">
         <f t="shared" ref="Q3:Q75" si="4">sum(N3,P3)</f>
@@ -736,7 +845,7 @@
       <c r="C4" s="6">
         <v>10.1</v>
       </c>
-      <c r="D4" s="14">
+      <c r="D4" s="12">
         <v>13.3</v>
       </c>
       <c r="E4" s="6" t="s">
@@ -759,25 +868,25 @@
       <c r="J4" s="6">
         <v>30.2</v>
       </c>
-      <c r="K4" s="6" t="s">
+      <c r="K4" s="12">
+        <v>0.0</v>
+      </c>
+      <c r="L4" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="L4" s="6" t="s">
+      <c r="M4" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="M4" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="N4" s="12">
+      <c r="N4" s="13">
         <f t="shared" si="3"/>
         <v>30.2</v>
       </c>
-      <c r="O4" s="13">
+      <c r="O4" s="14">
         <f t="shared" ref="O4:O75" si="5">(N4-N3)/N3</f>
         <v>-0.05625</v>
       </c>
       <c r="P4" s="6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="Q4" s="5">
         <f t="shared" si="4"/>
@@ -817,25 +926,25 @@
       <c r="J5" s="6">
         <v>27.8</v>
       </c>
-      <c r="K5" s="6" t="s">
+      <c r="K5" s="12">
+        <v>0.0</v>
+      </c>
+      <c r="L5" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="L5" s="6" t="s">
+      <c r="M5" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="M5" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="N5" s="12">
+      <c r="N5" s="13">
         <f t="shared" si="3"/>
         <v>27.8</v>
       </c>
-      <c r="O5" s="13">
+      <c r="O5" s="14">
         <f t="shared" si="5"/>
         <v>-0.07947019868</v>
       </c>
       <c r="P5" s="6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="Q5" s="5">
         <f t="shared" si="4"/>
@@ -875,25 +984,25 @@
       <c r="J6" s="6">
         <v>27.2</v>
       </c>
-      <c r="K6" s="6" t="s">
+      <c r="K6" s="12">
+        <v>0.0</v>
+      </c>
+      <c r="L6" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="L6" s="6" t="s">
+      <c r="M6" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="M6" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="N6" s="12">
+      <c r="N6" s="13">
         <f t="shared" si="3"/>
         <v>27.2</v>
       </c>
-      <c r="O6" s="13">
+      <c r="O6" s="14">
         <f t="shared" si="5"/>
         <v>-0.02158273381</v>
       </c>
       <c r="P6" s="6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="Q6" s="5">
         <f t="shared" si="4"/>
@@ -933,25 +1042,25 @@
       <c r="J7" s="6">
         <v>24.5</v>
       </c>
-      <c r="K7" s="6" t="s">
+      <c r="K7" s="12">
+        <v>0.0</v>
+      </c>
+      <c r="L7" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="L7" s="6" t="s">
+      <c r="M7" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="M7" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="N7" s="12">
+      <c r="N7" s="13">
         <f t="shared" si="3"/>
         <v>24.5</v>
       </c>
-      <c r="O7" s="13">
+      <c r="O7" s="14">
         <f t="shared" si="5"/>
         <v>-0.09926470588</v>
       </c>
       <c r="P7" s="6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="Q7" s="5">
         <f t="shared" si="4"/>
@@ -991,25 +1100,25 @@
       <c r="J8" s="6">
         <v>23.4</v>
       </c>
-      <c r="K8" s="6" t="s">
+      <c r="K8" s="12">
+        <v>0.0</v>
+      </c>
+      <c r="L8" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="L8" s="6" t="s">
+      <c r="M8" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="M8" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="N8" s="12">
+      <c r="N8" s="13">
         <f t="shared" si="3"/>
         <v>23.4</v>
       </c>
-      <c r="O8" s="13">
+      <c r="O8" s="14">
         <f t="shared" si="5"/>
         <v>-0.04489795918</v>
       </c>
       <c r="P8" s="6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="Q8" s="5">
         <f t="shared" si="4"/>
@@ -1049,25 +1158,25 @@
       <c r="J9" s="6">
         <v>21.1</v>
       </c>
-      <c r="K9" s="6" t="s">
+      <c r="K9" s="12">
+        <v>0.0</v>
+      </c>
+      <c r="L9" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="L9" s="6" t="s">
+      <c r="M9" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="M9" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="N9" s="12">
+      <c r="N9" s="13">
         <f t="shared" si="3"/>
         <v>21.1</v>
       </c>
-      <c r="O9" s="13">
+      <c r="O9" s="14">
         <f t="shared" si="5"/>
         <v>-0.09829059829</v>
       </c>
       <c r="P9" s="6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="Q9" s="5">
         <f t="shared" si="4"/>
@@ -1107,25 +1216,25 @@
       <c r="J10" s="6">
         <v>20.7</v>
       </c>
-      <c r="K10" s="6" t="s">
+      <c r="K10" s="12">
+        <v>0.0</v>
+      </c>
+      <c r="L10" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="L10" s="6" t="s">
+      <c r="M10" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="M10" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="N10" s="12">
+      <c r="N10" s="13">
         <f t="shared" si="3"/>
         <v>20.7</v>
       </c>
-      <c r="O10" s="13">
+      <c r="O10" s="14">
         <f t="shared" si="5"/>
         <v>-0.01895734597</v>
       </c>
       <c r="P10" s="6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="Q10" s="5">
         <f t="shared" si="4"/>
@@ -1165,20 +1274,20 @@
       <c r="J11" s="6">
         <v>21.0</v>
       </c>
-      <c r="K11" s="6" t="s">
+      <c r="K11" s="12">
+        <v>0.0</v>
+      </c>
+      <c r="L11" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="L11" s="6" t="s">
+      <c r="M11" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="M11" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="N11" s="12">
+      <c r="N11" s="13">
         <f t="shared" si="3"/>
         <v>21</v>
       </c>
-      <c r="O11" s="13">
+      <c r="O11" s="14">
         <f t="shared" si="5"/>
         <v>0.01449275362</v>
       </c>
@@ -1200,7 +1309,7 @@
       <c r="C12" s="6">
         <v>6.2</v>
       </c>
-      <c r="D12" s="14">
+      <c r="D12" s="12">
         <v>18.5</v>
       </c>
       <c r="E12" s="6" t="s">
@@ -1223,20 +1332,20 @@
       <c r="J12" s="6">
         <v>22.1</v>
       </c>
-      <c r="K12" s="6" t="s">
+      <c r="K12" s="12">
+        <v>0.0</v>
+      </c>
+      <c r="L12" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="L12" s="6" t="s">
+      <c r="M12" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="M12" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="N12" s="12">
+      <c r="N12" s="13">
         <f t="shared" si="3"/>
         <v>22.1</v>
       </c>
-      <c r="O12" s="13">
+      <c r="O12" s="14">
         <f t="shared" si="5"/>
         <v>0.05238095238</v>
       </c>
@@ -1281,20 +1390,20 @@
       <c r="J13" s="6">
         <v>19.8</v>
       </c>
-      <c r="K13" s="6" t="s">
+      <c r="K13" s="12">
+        <v>0.0</v>
+      </c>
+      <c r="L13" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="L13" s="6" t="s">
+      <c r="M13" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="M13" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="N13" s="12">
+      <c r="N13" s="13">
         <f t="shared" si="3"/>
         <v>19.8</v>
       </c>
-      <c r="O13" s="13">
+      <c r="O13" s="14">
         <f t="shared" si="5"/>
         <v>-0.1040723982</v>
       </c>
@@ -1343,16 +1452,16 @@
         <v>0.0</v>
       </c>
       <c r="L14" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="M14" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="M14" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="N14" s="12">
+      <c r="N14" s="13">
         <f t="shared" si="3"/>
         <v>19.7</v>
       </c>
-      <c r="O14" s="13">
+      <c r="O14" s="14">
         <f t="shared" si="5"/>
         <v>-0.005050505051</v>
       </c>
@@ -1401,16 +1510,16 @@
         <v>0.0</v>
       </c>
       <c r="L15" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="M15" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="M15" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="N15" s="12">
+      <c r="N15" s="13">
         <f t="shared" si="3"/>
         <v>19.5</v>
       </c>
-      <c r="O15" s="13">
+      <c r="O15" s="14">
         <f t="shared" si="5"/>
         <v>-0.01015228426</v>
       </c>
@@ -1459,16 +1568,16 @@
         <v>0.0</v>
       </c>
       <c r="L16" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="M16" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="M16" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="N16" s="12">
+      <c r="N16" s="13">
         <f t="shared" si="3"/>
         <v>20</v>
       </c>
-      <c r="O16" s="13">
+      <c r="O16" s="14">
         <f t="shared" si="5"/>
         <v>0.02564102564</v>
       </c>
@@ -1517,16 +1626,16 @@
         <v>0.0</v>
       </c>
       <c r="L17" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="M17" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="M17" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="N17" s="12">
+      <c r="N17" s="13">
         <f t="shared" si="3"/>
         <v>18.4</v>
       </c>
-      <c r="O17" s="13">
+      <c r="O17" s="14">
         <f t="shared" si="5"/>
         <v>-0.08</v>
       </c>
@@ -1575,16 +1684,16 @@
         <v>0.0</v>
       </c>
       <c r="L18" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="M18" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="M18" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="N18" s="12">
+      <c r="N18" s="13">
         <f t="shared" si="3"/>
         <v>18.3</v>
       </c>
-      <c r="O18" s="13">
+      <c r="O18" s="14">
         <f t="shared" si="5"/>
         <v>-0.005434782609</v>
       </c>
@@ -1633,16 +1742,16 @@
         <v>0.0</v>
       </c>
       <c r="L19" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="M19" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="M19" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="N19" s="12">
+      <c r="N19" s="13">
         <f t="shared" si="3"/>
         <v>18.6</v>
       </c>
-      <c r="O19" s="13">
+      <c r="O19" s="14">
         <f t="shared" si="5"/>
         <v>0.01639344262</v>
       </c>
@@ -1691,16 +1800,16 @@
         <v>0.0</v>
       </c>
       <c r="L20" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="M20" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="M20" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="N20" s="12">
+      <c r="N20" s="13">
         <f t="shared" si="3"/>
         <v>17.2</v>
       </c>
-      <c r="O20" s="13">
+      <c r="O20" s="14">
         <f t="shared" si="5"/>
         <v>-0.0752688172</v>
       </c>
@@ -1749,16 +1858,16 @@
         <v>0.0</v>
       </c>
       <c r="L21" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="M21" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="M21" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="N21" s="12">
+      <c r="N21" s="13">
         <f t="shared" si="3"/>
         <v>18.5</v>
       </c>
-      <c r="O21" s="13">
+      <c r="O21" s="14">
         <f t="shared" si="5"/>
         <v>0.07558139535</v>
       </c>
@@ -1807,16 +1916,16 @@
         <v>0.0</v>
       </c>
       <c r="L22" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="M22" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="M22" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="N22" s="12">
+      <c r="N22" s="13">
         <f t="shared" si="3"/>
         <v>16.9</v>
       </c>
-      <c r="O22" s="13">
+      <c r="O22" s="14">
         <f t="shared" si="5"/>
         <v>-0.08648648649</v>
       </c>
@@ -1865,16 +1974,16 @@
         <v>0.0</v>
       </c>
       <c r="L23" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="M23" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="M23" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="N23" s="12">
+      <c r="N23" s="13">
         <f t="shared" si="3"/>
         <v>17.5</v>
       </c>
-      <c r="O23" s="13">
+      <c r="O23" s="14">
         <f t="shared" si="5"/>
         <v>0.03550295858</v>
       </c>
@@ -1923,16 +2032,16 @@
         <v>0.0</v>
       </c>
       <c r="L24" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="M24" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="M24" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="N24" s="12">
+      <c r="N24" s="13">
         <f t="shared" si="3"/>
         <v>16.3</v>
       </c>
-      <c r="O24" s="13">
+      <c r="O24" s="14">
         <f t="shared" si="5"/>
         <v>-0.06857142857</v>
       </c>
@@ -1981,16 +2090,16 @@
         <v>0.0</v>
       </c>
       <c r="L25" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="M25" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="M25" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="N25" s="12">
+      <c r="N25" s="13">
         <f t="shared" si="3"/>
         <v>16.7</v>
       </c>
-      <c r="O25" s="13">
+      <c r="O25" s="14">
         <f t="shared" si="5"/>
         <v>0.0245398773</v>
       </c>
@@ -2022,7 +2131,7 @@
         <f t="shared" si="1"/>
         <v>81</v>
       </c>
-      <c r="G26" s="14">
+      <c r="G26" s="12">
         <v>0.0</v>
       </c>
       <c r="H26" s="6">
@@ -2039,16 +2148,16 @@
         <v>0.1</v>
       </c>
       <c r="L26" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="M26" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="M26" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="N26" s="12">
+      <c r="N26" s="13">
         <f t="shared" si="3"/>
         <v>15.8</v>
       </c>
-      <c r="O26" s="13">
+      <c r="O26" s="14">
         <f t="shared" si="5"/>
         <v>-0.05389221557</v>
       </c>
@@ -2080,7 +2189,7 @@
         <f t="shared" si="1"/>
         <v>80.7</v>
       </c>
-      <c r="G27" s="14">
+      <c r="G27" s="12">
         <v>0.0</v>
       </c>
       <c r="H27" s="6">
@@ -2097,16 +2206,16 @@
         <v>0.1</v>
       </c>
       <c r="L27" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="M27" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="M27" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="N27" s="12">
+      <c r="N27" s="13">
         <f t="shared" si="3"/>
         <v>14.9</v>
       </c>
-      <c r="O27" s="13">
+      <c r="O27" s="14">
         <f t="shared" si="5"/>
         <v>-0.05696202532</v>
       </c>
@@ -2138,7 +2247,7 @@
         <f t="shared" si="1"/>
         <v>77.5</v>
       </c>
-      <c r="G28" s="14">
+      <c r="G28" s="12">
         <v>0.0</v>
       </c>
       <c r="H28" s="6">
@@ -2155,16 +2264,16 @@
         <v>0.1</v>
       </c>
       <c r="L28" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="M28" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="M28" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="N28" s="12">
+      <c r="N28" s="13">
         <f t="shared" si="3"/>
         <v>16.4</v>
       </c>
-      <c r="O28" s="13">
+      <c r="O28" s="14">
         <f t="shared" si="5"/>
         <v>0.1006711409</v>
       </c>
@@ -2196,7 +2305,7 @@
         <f t="shared" si="1"/>
         <v>75.1</v>
       </c>
-      <c r="G29" s="14">
+      <c r="G29" s="12">
         <v>0.0</v>
       </c>
       <c r="H29" s="6">
@@ -2213,16 +2322,16 @@
         <v>0.2</v>
       </c>
       <c r="L29" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="M29" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="M29" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="N29" s="12">
+      <c r="N29" s="13">
         <f t="shared" si="3"/>
         <v>16</v>
       </c>
-      <c r="O29" s="13">
+      <c r="O29" s="14">
         <f t="shared" si="5"/>
         <v>-0.0243902439</v>
       </c>
@@ -2254,7 +2363,7 @@
         <f t="shared" si="1"/>
         <v>76.4</v>
       </c>
-      <c r="G30" s="14">
+      <c r="G30" s="12">
         <v>0.0</v>
       </c>
       <c r="H30" s="6">
@@ -2271,16 +2380,16 @@
         <v>0.2</v>
       </c>
       <c r="L30" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="M30" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="M30" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="N30" s="12">
+      <c r="N30" s="13">
         <f t="shared" si="3"/>
         <v>14.3</v>
       </c>
-      <c r="O30" s="13">
+      <c r="O30" s="14">
         <f t="shared" si="5"/>
         <v>-0.10625</v>
       </c>
@@ -2312,7 +2421,7 @@
         <f t="shared" si="1"/>
         <v>77.5</v>
       </c>
-      <c r="G31" s="14">
+      <c r="G31" s="12">
         <v>0.0</v>
       </c>
       <c r="H31" s="6">
@@ -2329,16 +2438,16 @@
         <v>0.2</v>
       </c>
       <c r="L31" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="M31" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="M31" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="N31" s="12">
+      <c r="N31" s="13">
         <f t="shared" si="3"/>
         <v>10.7</v>
       </c>
-      <c r="O31" s="13">
+      <c r="O31" s="14">
         <f t="shared" si="5"/>
         <v>-0.2517482517</v>
       </c>
@@ -2370,7 +2479,7 @@
         <f t="shared" si="1"/>
         <v>74.5</v>
       </c>
-      <c r="G32" s="14">
+      <c r="G32" s="12">
         <v>0.0</v>
       </c>
       <c r="H32" s="6">
@@ -2387,16 +2496,16 @@
         <v>0.1</v>
       </c>
       <c r="L32" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="M32" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="M32" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="N32" s="12">
+      <c r="N32" s="13">
         <f t="shared" si="3"/>
         <v>12.9</v>
       </c>
-      <c r="O32" s="13">
+      <c r="O32" s="14">
         <f t="shared" si="5"/>
         <v>0.2056074766</v>
       </c>
@@ -2428,7 +2537,7 @@
         <f t="shared" si="1"/>
         <v>75.9</v>
       </c>
-      <c r="G33" s="14">
+      <c r="G33" s="12">
         <v>0.0</v>
       </c>
       <c r="H33" s="6">
@@ -2445,16 +2554,16 @@
         <v>0.2</v>
       </c>
       <c r="L33" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="M33" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="M33" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="N33" s="12">
+      <c r="N33" s="13">
         <f t="shared" si="3"/>
         <v>12.8</v>
       </c>
-      <c r="O33" s="13">
+      <c r="O33" s="14">
         <f t="shared" si="5"/>
         <v>-0.007751937984</v>
       </c>
@@ -2476,7 +2585,7 @@
       <c r="C34" s="6">
         <v>10.7</v>
       </c>
-      <c r="D34" s="14">
+      <c r="D34" s="12">
         <v>15.1</v>
       </c>
       <c r="E34" s="6" t="s">
@@ -2486,7 +2595,7 @@
         <f t="shared" si="1"/>
         <v>76.5</v>
       </c>
-      <c r="G34" s="14">
+      <c r="G34" s="12">
         <v>0.0</v>
       </c>
       <c r="H34" s="6">
@@ -2503,20 +2612,20 @@
         <v>0.2</v>
       </c>
       <c r="L34" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="M34" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="M34" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="N34" s="12">
+      <c r="N34" s="13">
         <f t="shared" si="3"/>
         <v>12.4</v>
       </c>
-      <c r="O34" s="13">
+      <c r="O34" s="14">
         <f t="shared" si="5"/>
         <v>-0.03125</v>
       </c>
-      <c r="P34" s="14">
+      <c r="P34" s="12">
         <v>11.0</v>
       </c>
       <c r="Q34" s="5">
@@ -2544,7 +2653,7 @@
         <f t="shared" si="1"/>
         <v>76.4</v>
       </c>
-      <c r="G35" s="14">
+      <c r="G35" s="12">
         <v>0.0</v>
       </c>
       <c r="H35" s="6">
@@ -2561,16 +2670,16 @@
         <v>0.2</v>
       </c>
       <c r="L35" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="M35" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="M35" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="N35" s="12">
+      <c r="N35" s="13">
         <f t="shared" si="3"/>
         <v>11.7</v>
       </c>
-      <c r="O35" s="13">
+      <c r="O35" s="14">
         <f t="shared" si="5"/>
         <v>-0.0564516129</v>
       </c>
@@ -2602,7 +2711,7 @@
         <f t="shared" si="1"/>
         <v>73.2</v>
       </c>
-      <c r="G36" s="14">
+      <c r="G36" s="12">
         <v>0.0</v>
       </c>
       <c r="H36" s="6">
@@ -2619,16 +2728,16 @@
         <v>0.2</v>
       </c>
       <c r="L36" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="M36" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="M36" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="N36" s="12">
+      <c r="N36" s="13">
         <f t="shared" si="3"/>
         <v>14.1</v>
       </c>
-      <c r="O36" s="13">
+      <c r="O36" s="14">
         <f t="shared" si="5"/>
         <v>0.2051282051</v>
       </c>
@@ -2677,16 +2786,16 @@
         <v>0.3</v>
       </c>
       <c r="L37" s="6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="M37" s="6">
         <v>0.0</v>
       </c>
-      <c r="N37" s="12">
+      <c r="N37" s="13">
         <f t="shared" si="3"/>
         <v>14.8</v>
       </c>
-      <c r="O37" s="13">
+      <c r="O37" s="14">
         <f t="shared" si="5"/>
         <v>0.04964539007</v>
       </c>
@@ -2718,8 +2827,8 @@
         <f t="shared" si="1"/>
         <v>72.8</v>
       </c>
-      <c r="G38" s="6" t="s">
-        <v>23</v>
+      <c r="G38" s="6">
+        <v>0.0</v>
       </c>
       <c r="H38" s="6">
         <v>0.0</v>
@@ -2740,11 +2849,11 @@
       <c r="M38" s="6">
         <v>0.0</v>
       </c>
-      <c r="N38" s="12">
+      <c r="N38" s="13">
         <f t="shared" si="3"/>
         <v>13.7</v>
       </c>
-      <c r="O38" s="13">
+      <c r="O38" s="14">
         <f t="shared" si="5"/>
         <v>-0.07432432432</v>
       </c>
@@ -2776,8 +2885,8 @@
         <f t="shared" si="1"/>
         <v>72.6</v>
       </c>
-      <c r="G39" s="6" t="s">
-        <v>23</v>
+      <c r="G39" s="6">
+        <v>0.0</v>
       </c>
       <c r="H39" s="6">
         <v>0.0</v>
@@ -2798,11 +2907,11 @@
       <c r="M39" s="6">
         <v>0.0</v>
       </c>
-      <c r="N39" s="12">
+      <c r="N39" s="13">
         <f t="shared" si="3"/>
         <v>11.9</v>
       </c>
-      <c r="O39" s="13">
+      <c r="O39" s="14">
         <f t="shared" si="5"/>
         <v>-0.1313868613</v>
       </c>
@@ -2834,8 +2943,8 @@
         <f t="shared" si="1"/>
         <v>71.1</v>
       </c>
-      <c r="G40" s="6" t="s">
-        <v>23</v>
+      <c r="G40" s="6">
+        <v>0.0</v>
       </c>
       <c r="H40" s="6">
         <v>0.0</v>
@@ -2856,11 +2965,11 @@
       <c r="M40" s="6">
         <v>0.0</v>
       </c>
-      <c r="N40" s="12">
+      <c r="N40" s="13">
         <f t="shared" si="3"/>
         <v>12.2</v>
       </c>
-      <c r="O40" s="13">
+      <c r="O40" s="14">
         <f t="shared" si="5"/>
         <v>0.02521008403</v>
       </c>
@@ -2882,7 +2991,7 @@
       <c r="C41" s="6">
         <v>4.6</v>
       </c>
-      <c r="D41" s="14">
+      <c r="D41" s="12">
         <v>10.6</v>
       </c>
       <c r="E41" s="6" t="s">
@@ -2914,11 +3023,11 @@
       <c r="M41" s="6">
         <v>0.0</v>
       </c>
-      <c r="N41" s="12">
+      <c r="N41" s="13">
         <f t="shared" si="3"/>
         <v>10.2</v>
       </c>
-      <c r="O41" s="13">
+      <c r="O41" s="14">
         <f t="shared" si="5"/>
         <v>-0.1639344262</v>
       </c>
@@ -2972,11 +3081,11 @@
       <c r="M42" s="6">
         <v>0.0</v>
       </c>
-      <c r="N42" s="12">
+      <c r="N42" s="13">
         <f t="shared" si="3"/>
         <v>8.8</v>
       </c>
-      <c r="O42" s="13">
+      <c r="O42" s="14">
         <f t="shared" si="5"/>
         <v>-0.137254902</v>
       </c>
@@ -3030,11 +3139,11 @@
       <c r="M43" s="6">
         <v>0.1</v>
       </c>
-      <c r="N43" s="12">
+      <c r="N43" s="13">
         <f t="shared" si="3"/>
         <v>9.8</v>
       </c>
-      <c r="O43" s="13">
+      <c r="O43" s="14">
         <f t="shared" si="5"/>
         <v>0.1136363636</v>
       </c>
@@ -3088,11 +3197,11 @@
       <c r="M44" s="6">
         <v>0.1</v>
       </c>
-      <c r="N44" s="12">
+      <c r="N44" s="13">
         <f t="shared" si="3"/>
         <v>10.1</v>
       </c>
-      <c r="O44" s="13">
+      <c r="O44" s="14">
         <f t="shared" si="5"/>
         <v>0.0306122449</v>
       </c>
@@ -3146,11 +3255,11 @@
       <c r="M45" s="6">
         <v>0.1</v>
       </c>
-      <c r="N45" s="12">
+      <c r="N45" s="13">
         <f t="shared" si="3"/>
         <v>9.9</v>
       </c>
-      <c r="O45" s="13">
+      <c r="O45" s="14">
         <f t="shared" si="5"/>
         <v>-0.0198019802</v>
       </c>
@@ -3204,11 +3313,11 @@
       <c r="M46" s="6">
         <v>0.1</v>
       </c>
-      <c r="N46" s="12">
+      <c r="N46" s="13">
         <f t="shared" si="3"/>
         <v>8.7</v>
       </c>
-      <c r="O46" s="13">
+      <c r="O46" s="14">
         <f t="shared" si="5"/>
         <v>-0.1212121212</v>
       </c>
@@ -3262,11 +3371,11 @@
       <c r="M47" s="6">
         <v>0.1</v>
       </c>
-      <c r="N47" s="12">
+      <c r="N47" s="13">
         <f t="shared" si="3"/>
         <v>9.2</v>
       </c>
-      <c r="O47" s="13">
+      <c r="O47" s="14">
         <f t="shared" si="5"/>
         <v>0.05747126437</v>
       </c>
@@ -3320,11 +3429,11 @@
       <c r="M48" s="6">
         <v>0.1</v>
       </c>
-      <c r="N48" s="12">
+      <c r="N48" s="13">
         <f t="shared" si="3"/>
         <v>8.5</v>
       </c>
-      <c r="O48" s="13">
+      <c r="O48" s="14">
         <f t="shared" si="5"/>
         <v>-0.07608695652</v>
       </c>
@@ -3378,11 +3487,11 @@
       <c r="M49" s="6">
         <v>0.1</v>
       </c>
-      <c r="N49" s="12">
+      <c r="N49" s="13">
         <f t="shared" si="3"/>
         <v>9.7</v>
       </c>
-      <c r="O49" s="13">
+      <c r="O49" s="14">
         <f t="shared" si="5"/>
         <v>0.1411764706</v>
       </c>
@@ -3436,11 +3545,11 @@
       <c r="M50" s="6">
         <v>0.1</v>
       </c>
-      <c r="N50" s="12">
+      <c r="N50" s="13">
         <f t="shared" si="3"/>
         <v>10.5</v>
       </c>
-      <c r="O50" s="13">
+      <c r="O50" s="14">
         <f t="shared" si="5"/>
         <v>0.0824742268</v>
       </c>
@@ -3462,7 +3571,7 @@
       <c r="C51" s="6">
         <v>2.7</v>
       </c>
-      <c r="D51" s="14">
+      <c r="D51" s="12">
         <v>13.7</v>
       </c>
       <c r="E51" s="6">
@@ -3494,11 +3603,11 @@
       <c r="M51" s="6">
         <v>0.1</v>
       </c>
-      <c r="N51" s="12">
+      <c r="N51" s="13">
         <f t="shared" si="3"/>
         <v>10.6</v>
       </c>
-      <c r="O51" s="13">
+      <c r="O51" s="14">
         <f t="shared" si="5"/>
         <v>0.009523809524</v>
       </c>
@@ -3552,11 +3661,11 @@
       <c r="M52" s="6">
         <v>0.1</v>
       </c>
-      <c r="N52" s="12">
+      <c r="N52" s="13">
         <f t="shared" si="3"/>
         <v>9.3</v>
       </c>
-      <c r="O52" s="13">
+      <c r="O52" s="14">
         <f t="shared" si="5"/>
         <v>-0.1226415094</v>
       </c>
@@ -3610,15 +3719,15 @@
       <c r="M53" s="6">
         <v>0.1</v>
       </c>
-      <c r="N53" s="12">
+      <c r="N53" s="13">
         <f t="shared" si="3"/>
         <v>9</v>
       </c>
-      <c r="O53" s="13">
+      <c r="O53" s="14">
         <f t="shared" si="5"/>
         <v>-0.03225806452</v>
       </c>
-      <c r="P53" s="14">
+      <c r="P53" s="12">
         <v>19.7</v>
       </c>
       <c r="Q53" s="5">
@@ -3668,11 +3777,11 @@
       <c r="M54" s="6">
         <v>0.1</v>
       </c>
-      <c r="N54" s="12">
+      <c r="N54" s="13">
         <f t="shared" si="3"/>
         <v>7.6</v>
       </c>
-      <c r="O54" s="13">
+      <c r="O54" s="14">
         <f t="shared" si="5"/>
         <v>-0.1555555556</v>
       </c>
@@ -3726,11 +3835,11 @@
       <c r="M55" s="6">
         <v>0.2</v>
       </c>
-      <c r="N55" s="12">
+      <c r="N55" s="13">
         <f t="shared" si="3"/>
         <v>6.2</v>
       </c>
-      <c r="O55" s="13">
+      <c r="O55" s="14">
         <f t="shared" si="5"/>
         <v>-0.1842105263</v>
       </c>
@@ -3778,17 +3887,17 @@
       <c r="K56" s="6">
         <v>0.4</v>
       </c>
-      <c r="L56" s="6" t="s">
-        <v>24</v>
+      <c r="L56" s="6">
+        <v>0.0</v>
       </c>
       <c r="M56" s="6">
         <v>0.3</v>
       </c>
-      <c r="N56" s="12">
+      <c r="N56" s="13">
         <f t="shared" si="3"/>
         <v>7.3</v>
       </c>
-      <c r="O56" s="13">
+      <c r="O56" s="14">
         <f t="shared" si="5"/>
         <v>0.1774193548</v>
       </c>
@@ -3830,7 +3939,7 @@
         <f t="shared" si="2"/>
         <v>72.4</v>
       </c>
-      <c r="J57" s="14">
+      <c r="J57" s="12">
         <v>6.9</v>
       </c>
       <c r="K57" s="6">
@@ -3842,11 +3951,11 @@
       <c r="M57" s="6">
         <v>0.3</v>
       </c>
-      <c r="N57" s="12">
+      <c r="N57" s="13">
         <f t="shared" si="3"/>
         <v>7.6</v>
       </c>
-      <c r="O57" s="13">
+      <c r="O57" s="14">
         <f t="shared" si="5"/>
         <v>0.04109589041</v>
       </c>
@@ -3868,7 +3977,7 @@
       <c r="C58" s="6">
         <v>3.1</v>
       </c>
-      <c r="D58" s="14">
+      <c r="D58" s="12">
         <v>17.9</v>
       </c>
       <c r="E58" s="6">
@@ -3900,11 +4009,11 @@
       <c r="M58" s="6">
         <v>0.4</v>
       </c>
-      <c r="N58" s="12">
+      <c r="N58" s="13">
         <f t="shared" si="3"/>
         <v>7.3</v>
       </c>
-      <c r="O58" s="13">
+      <c r="O58" s="14">
         <f t="shared" si="5"/>
         <v>-0.03947368421</v>
       </c>
@@ -3958,11 +4067,11 @@
       <c r="M59" s="6">
         <v>0.4</v>
       </c>
-      <c r="N59" s="12">
+      <c r="N59" s="13">
         <f t="shared" si="3"/>
         <v>7.3</v>
       </c>
-      <c r="O59" s="13">
+      <c r="O59" s="14">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
@@ -3978,7 +4087,7 @@
       <c r="A60" s="6">
         <v>2006.0</v>
       </c>
-      <c r="B60" s="14">
+      <c r="B60" s="12">
         <v>49.0</v>
       </c>
       <c r="C60" s="6">
@@ -4016,11 +4125,11 @@
       <c r="M60" s="6">
         <v>0.7</v>
       </c>
-      <c r="N60" s="12">
+      <c r="N60" s="13">
         <f t="shared" si="3"/>
         <v>8.1</v>
       </c>
-      <c r="O60" s="13">
+      <c r="O60" s="14">
         <f t="shared" si="5"/>
         <v>0.1095890411</v>
       </c>
@@ -4074,11 +4183,11 @@
       <c r="M61" s="6">
         <v>0.8</v>
       </c>
-      <c r="N61" s="12">
+      <c r="N61" s="13">
         <f t="shared" si="3"/>
         <v>7</v>
       </c>
-      <c r="O61" s="13">
+      <c r="O61" s="14">
         <f t="shared" si="5"/>
         <v>-0.1358024691</v>
       </c>
@@ -4100,7 +4209,7 @@
       <c r="C62" s="6">
         <v>1.1</v>
       </c>
-      <c r="D62" s="14">
+      <c r="D62" s="12">
         <v>21.4</v>
       </c>
       <c r="E62" s="6">
@@ -4132,11 +4241,11 @@
       <c r="M62" s="6">
         <v>1.3</v>
       </c>
-      <c r="N62" s="12">
+      <c r="N62" s="13">
         <f t="shared" si="3"/>
         <v>7.7</v>
       </c>
-      <c r="O62" s="13">
+      <c r="O62" s="14">
         <f t="shared" si="5"/>
         <v>0.1</v>
       </c>
@@ -4190,11 +4299,11 @@
       <c r="M63" s="6">
         <v>1.9</v>
       </c>
-      <c r="N63" s="12">
+      <c r="N63" s="13">
         <f t="shared" si="3"/>
         <v>9.1</v>
       </c>
-      <c r="O63" s="13">
+      <c r="O63" s="14">
         <f t="shared" si="5"/>
         <v>0.1818181818</v>
       </c>
@@ -4248,11 +4357,11 @@
       <c r="M64" s="6">
         <v>2.3</v>
       </c>
-      <c r="N64" s="12">
+      <c r="N64" s="13">
         <f t="shared" si="3"/>
         <v>8.9</v>
       </c>
-      <c r="O64" s="13">
+      <c r="O64" s="14">
         <f t="shared" si="5"/>
         <v>-0.02197802198</v>
       </c>
@@ -4271,7 +4380,7 @@
       <c r="B65" s="6">
         <v>42.3</v>
       </c>
-      <c r="C65" s="14">
+      <c r="C65" s="12">
         <v>0.7</v>
       </c>
       <c r="D65" s="6">
@@ -4306,11 +4415,11 @@
       <c r="M65" s="6">
         <v>2.9</v>
       </c>
-      <c r="N65" s="12">
+      <c r="N65" s="13">
         <f t="shared" si="3"/>
         <v>10.9</v>
       </c>
-      <c r="O65" s="13">
+      <c r="O65" s="14">
         <f t="shared" si="5"/>
         <v>0.2247191011</v>
       </c>
@@ -4364,11 +4473,11 @@
       <c r="M66" s="6">
         <v>3.5</v>
       </c>
-      <c r="N66" s="12">
+      <c r="N66" s="13">
         <f t="shared" si="3"/>
         <v>10.7</v>
       </c>
-      <c r="O66" s="13">
+      <c r="O66" s="14">
         <f t="shared" si="5"/>
         <v>-0.01834862385</v>
       </c>
@@ -4390,7 +4499,7 @@
       <c r="C67" s="6">
         <v>0.7</v>
       </c>
-      <c r="D67" s="14">
+      <c r="D67" s="12">
         <v>27.7</v>
       </c>
       <c r="E67" s="6">
@@ -4422,11 +4531,11 @@
       <c r="M67" s="6">
         <v>4.1</v>
       </c>
-      <c r="N67" s="12">
+      <c r="N67" s="13">
         <f t="shared" si="3"/>
         <v>11.4</v>
       </c>
-      <c r="O67" s="13">
+      <c r="O67" s="14">
         <f t="shared" si="5"/>
         <v>0.06542056075</v>
       </c>
@@ -4445,7 +4554,7 @@
       <c r="B68" s="6">
         <v>38.6</v>
       </c>
-      <c r="C68" s="14">
+      <c r="C68" s="12">
         <v>0.7</v>
       </c>
       <c r="D68" s="6">
@@ -4480,11 +4589,11 @@
       <c r="M68" s="6">
         <v>4.4</v>
       </c>
-      <c r="N68" s="12">
+      <c r="N68" s="13">
         <f t="shared" si="3"/>
         <v>11.7</v>
       </c>
-      <c r="O68" s="13">
+      <c r="O68" s="14">
         <f t="shared" si="5"/>
         <v>0.02631578947</v>
       </c>
@@ -4538,11 +4647,11 @@
       <c r="M69" s="6">
         <v>4.7</v>
       </c>
-      <c r="N69" s="12">
+      <c r="N69" s="13">
         <f t="shared" si="3"/>
         <v>11.9</v>
       </c>
-      <c r="O69" s="13">
+      <c r="O69" s="14">
         <f t="shared" si="5"/>
         <v>0.01709401709</v>
       </c>
@@ -4596,11 +4705,11 @@
       <c r="M70" s="6">
         <v>5.6</v>
       </c>
-      <c r="N70" s="12">
+      <c r="N70" s="13">
         <f t="shared" si="3"/>
         <v>13.6</v>
       </c>
-      <c r="O70" s="13">
+      <c r="O70" s="14">
         <f t="shared" si="5"/>
         <v>0.1428571429</v>
       </c>
@@ -4622,7 +4731,7 @@
       <c r="C71" s="6">
         <v>0.5</v>
       </c>
-      <c r="D71" s="14">
+      <c r="D71" s="12">
         <v>31.7</v>
       </c>
       <c r="E71" s="6">
@@ -4654,11 +4763,11 @@
       <c r="M71" s="6">
         <v>6.3</v>
       </c>
-      <c r="N71" s="12">
+      <c r="N71" s="13">
         <f t="shared" si="3"/>
         <v>15.6</v>
       </c>
-      <c r="O71" s="13">
+      <c r="O71" s="14">
         <f t="shared" si="5"/>
         <v>0.1470588235</v>
       </c>
@@ -4712,11 +4821,11 @@
       <c r="M72" s="6">
         <v>6.6</v>
       </c>
-      <c r="N72" s="12">
+      <c r="N72" s="13">
         <f t="shared" si="3"/>
         <v>15.7</v>
       </c>
-      <c r="O72" s="13">
+      <c r="O72" s="14">
         <f t="shared" si="5"/>
         <v>0.00641025641</v>
       </c>
@@ -4770,11 +4879,11 @@
       <c r="M73" s="6">
         <v>7.2</v>
       </c>
-      <c r="N73" s="12">
+      <c r="N73" s="13">
         <f t="shared" si="3"/>
         <v>16.4</v>
       </c>
-      <c r="O73" s="13">
+      <c r="O73" s="14">
         <f t="shared" si="5"/>
         <v>0.04458598726</v>
       </c>
@@ -4828,11 +4937,11 @@
       <c r="M74" s="6">
         <v>8.4</v>
       </c>
-      <c r="N74" s="12">
+      <c r="N74" s="13">
         <f t="shared" si="3"/>
         <v>18.3</v>
       </c>
-      <c r="O74" s="13">
+      <c r="O74" s="14">
         <f t="shared" si="5"/>
         <v>0.1158536585</v>
       </c>
@@ -4886,11 +4995,11 @@
       <c r="M75" s="6">
         <v>9.2</v>
       </c>
-      <c r="N75" s="12">
+      <c r="N75" s="13">
         <f t="shared" si="3"/>
         <v>18.8</v>
       </c>
-      <c r="O75" s="13">
+      <c r="O75" s="14">
         <f t="shared" si="5"/>
         <v>0.02732240437</v>
       </c>
@@ -4916,8 +5025,8 @@
       <c r="K76" s="6"/>
       <c r="L76" s="6"/>
       <c r="M76" s="6"/>
-      <c r="N76" s="12"/>
-      <c r="O76" s="13"/>
+      <c r="N76" s="13"/>
+      <c r="O76" s="14"/>
       <c r="P76" s="6"/>
       <c r="Q76" s="5"/>
     </row>
@@ -10911,7 +11020,7 @@
   <sheetData>
     <row r="1" ht="15.75" customHeight="1">
       <c r="A1" s="15" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="B1" s="16"/>
       <c r="C1" s="16"/>
@@ -10928,7 +11037,7 @@
     </row>
     <row r="2" ht="15.75" customHeight="1">
       <c r="A2" s="6" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="B2" s="6" t="s">
         <v>12</v>
@@ -10943,7 +11052,7 @@
         <v>11</v>
       </c>
       <c r="F2" s="19" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="G2" s="6" t="s">
         <v>16</v>
@@ -10961,15 +11070,15 @@
         <v>3</v>
       </c>
       <c r="L2" s="6" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="M2" s="20" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
     </row>
     <row r="3" ht="15.75" customHeight="1">
       <c r="A3" s="21" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="B3" s="21">
         <v>0.3</v>
@@ -11013,7 +11122,7 @@
     </row>
     <row r="4" ht="15.75" customHeight="1">
       <c r="A4" s="21" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="B4" s="21">
         <v>0.0</v>
@@ -11057,7 +11166,7 @@
     </row>
     <row r="5" ht="15.75" customHeight="1">
       <c r="A5" s="21" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="B5" s="21">
         <v>6.2</v>
@@ -11101,7 +11210,7 @@
     </row>
     <row r="6" ht="15.75" customHeight="1">
       <c r="A6" s="21" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="B6" s="21">
         <v>0.8</v>
@@ -11145,7 +11254,7 @@
     </row>
     <row r="7" ht="15.75" customHeight="1">
       <c r="A7" s="21" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="B7" s="21">
         <v>17.4</v>
@@ -11189,7 +11298,7 @@
     </row>
     <row r="8" ht="15.75" customHeight="1">
       <c r="A8" s="21" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="B8" s="21">
         <v>3.1</v>
@@ -11233,7 +11342,7 @@
     </row>
     <row r="9" ht="15.75" customHeight="1">
       <c r="A9" s="21" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="B9" s="21">
         <v>0.7</v>
@@ -11277,7 +11386,7 @@
     </row>
     <row r="10" ht="15.75" customHeight="1">
       <c r="A10" s="21" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="B10" s="21">
         <v>1.5</v>
@@ -11321,7 +11430,7 @@
     </row>
     <row r="11" ht="15.75" customHeight="1">
       <c r="A11" s="21" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="B11" s="21">
         <v>11.9</v>
@@ -11365,7 +11474,7 @@
     </row>
     <row r="12" ht="15.75" customHeight="1">
       <c r="A12" s="21" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="B12" s="21">
         <v>3.7</v>
@@ -11409,7 +11518,7 @@
     </row>
     <row r="13" ht="15.75" customHeight="1">
       <c r="A13" s="21" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="B13" s="21">
         <v>3.8</v>
@@ -11453,7 +11562,7 @@
     </row>
     <row r="14" ht="15.75" customHeight="1">
       <c r="A14" s="21" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="B14" s="21">
         <v>5.7</v>
@@ -11497,7 +11606,7 @@
     </row>
     <row r="15" ht="15.75" customHeight="1">
       <c r="A15" s="21" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="B15" s="21">
         <v>3.3</v>
@@ -11541,7 +11650,7 @@
     </row>
     <row r="16" ht="15.75" customHeight="1">
       <c r="A16" s="24" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="B16" s="24">
         <v>0.3</v>
@@ -11600,7 +11709,7 @@
     </row>
     <row r="17" ht="15.75" customHeight="1">
       <c r="A17" s="21" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="B17" s="21">
         <v>0.7</v>
@@ -11644,7 +11753,7 @@
     </row>
     <row r="18" ht="15.75" customHeight="1">
       <c r="A18" s="21" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="B18" s="21">
         <v>0.3</v>
@@ -11688,7 +11797,7 @@
     </row>
     <row r="19" ht="15.75" customHeight="1">
       <c r="A19" s="21" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="B19" s="21">
         <v>0.1</v>
@@ -11732,7 +11841,7 @@
     </row>
     <row r="20" ht="15.75" customHeight="1">
       <c r="A20" s="21" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="B20" s="21">
         <v>0.1</v>
@@ -11776,7 +11885,7 @@
     </row>
     <row r="21" ht="15.75" customHeight="1">
       <c r="A21" s="21" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="B21" s="21">
         <v>0.2</v>
@@ -11820,7 +11929,7 @@
     </row>
     <row r="22" ht="15.75" customHeight="1">
       <c r="A22" s="21" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="B22" s="21">
         <v>1.6</v>
@@ -11864,7 +11973,7 @@
     </row>
     <row r="23" ht="15.75" customHeight="1">
       <c r="A23" s="21" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="B23" s="21">
         <v>1.7</v>
@@ -11908,7 +12017,7 @@
     </row>
     <row r="24" ht="15.75" customHeight="1">
       <c r="A24" s="21" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="B24" s="21">
         <v>9.2</v>
@@ -11951,8 +12060,8 @@
       </c>
     </row>
     <row r="25" ht="15.75" customHeight="1">
-      <c r="A25" s="21" t="s">
-        <v>52</v>
+      <c r="A25" s="26" t="s">
+        <v>49</v>
       </c>
       <c r="B25" s="21">
         <v>0.4</v>
@@ -11996,7 +12105,7 @@
     </row>
     <row r="26" ht="15.75" customHeight="1">
       <c r="A26" s="21" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="B26" s="21">
         <v>3.2</v>
@@ -12040,7 +12149,7 @@
     </row>
     <row r="27" ht="15.75" customHeight="1">
       <c r="A27" s="21" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="B27" s="21">
         <v>0.6</v>
@@ -12084,7 +12193,7 @@
     </row>
     <row r="28" ht="15.75" customHeight="1">
       <c r="A28" s="21" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="B28" s="21">
         <v>0.2</v>
@@ -12128,7 +12237,7 @@
     </row>
     <row r="29" ht="15.75" customHeight="1">
       <c r="A29" s="21" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="B29" s="21">
         <v>0.1</v>
@@ -12172,7 +12281,7 @@
     </row>
     <row r="30" ht="15.75" customHeight="1">
       <c r="A30" s="21" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="B30" s="21">
         <v>0.1</v>
@@ -12216,7 +12325,7 @@
     </row>
     <row r="31" ht="15.75" customHeight="1">
       <c r="A31" s="21" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="B31" s="21">
         <v>15.9</v>
@@ -12260,7 +12369,7 @@
     </row>
     <row r="32" ht="15.75" customHeight="1">
       <c r="A32" s="21" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="B32" s="21">
         <v>0.0</v>
@@ -12304,7 +12413,7 @@
     </row>
     <row r="33" ht="15.75" customHeight="1">
       <c r="A33" s="21" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="B33" s="21">
         <v>2.5</v>
@@ -12348,7 +12457,7 @@
     </row>
     <row r="34" ht="15.75" customHeight="1">
       <c r="A34" s="21" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="B34" s="21">
         <v>5.0</v>
@@ -12391,8 +12500,8 @@
       </c>
     </row>
     <row r="35" ht="15.75" customHeight="1">
-      <c r="A35" s="21" t="s">
-        <v>62</v>
+      <c r="A35" s="26" t="s">
+        <v>59</v>
       </c>
       <c r="B35" s="21">
         <v>1.0</v>
@@ -12436,7 +12545,7 @@
     </row>
     <row r="36" ht="15.75" customHeight="1">
       <c r="A36" s="21" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="B36" s="21">
         <v>7.6</v>
@@ -12480,7 +12589,7 @@
     </row>
     <row r="37" ht="15.75" customHeight="1">
       <c r="A37" s="21" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="B37" s="21">
         <v>0.0</v>
@@ -12524,7 +12633,7 @@
     </row>
     <row r="38" ht="15.75" customHeight="1">
       <c r="A38" s="21" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="B38" s="21">
         <v>0.5</v>
@@ -12568,7 +12677,7 @@
     </row>
     <row r="39" ht="15.75" customHeight="1">
       <c r="A39" s="21" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="B39" s="21">
         <v>0.1</v>
@@ -12612,7 +12721,7 @@
     </row>
     <row r="40" ht="15.75" customHeight="1">
       <c r="A40" s="21" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="B40" s="21">
         <v>2.5</v>
@@ -12656,7 +12765,7 @@
     </row>
     <row r="41" ht="15.75" customHeight="1">
       <c r="A41" s="21" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="B41" s="21">
         <v>0.1</v>
@@ -12700,7 +12809,7 @@
     </row>
     <row r="42" ht="15.75" customHeight="1">
       <c r="A42" s="21" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="B42" s="21">
         <v>4.2</v>
@@ -12744,7 +12853,7 @@
     </row>
     <row r="43" ht="15.75" customHeight="1">
       <c r="A43" s="21" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="B43" s="21">
         <v>2.3</v>
@@ -12788,7 +12897,7 @@
     </row>
     <row r="44" ht="15.75" customHeight="1">
       <c r="A44" s="21" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="B44" s="21">
         <v>0.0</v>
@@ -12832,7 +12941,7 @@
     </row>
     <row r="45" ht="15.75" customHeight="1">
       <c r="A45" s="21" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="B45" s="21">
         <v>0.4</v>
@@ -12876,7 +12985,7 @@
     </row>
     <row r="46" ht="15.75" customHeight="1">
       <c r="A46" s="21" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="B46" s="21">
         <v>2.9</v>
@@ -12920,7 +13029,7 @@
     </row>
     <row r="47" ht="15.75" customHeight="1">
       <c r="A47" s="21" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="B47" s="21">
         <v>8.1</v>
@@ -12964,7 +13073,7 @@
     </row>
     <row r="48" ht="15.75" customHeight="1">
       <c r="A48" s="21" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="B48" s="21">
         <v>8.8</v>
@@ -13008,7 +13117,7 @@
     </row>
     <row r="49" ht="15.75" customHeight="1">
       <c r="A49" s="21" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="B49" s="21">
         <v>3.6</v>
@@ -13052,7 +13161,7 @@
     </row>
     <row r="50" ht="15.75" customHeight="1">
       <c r="A50" s="21" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="B50" s="21">
         <v>0.0</v>
@@ -13096,7 +13205,7 @@
     </row>
     <row r="51" ht="15.75" customHeight="1">
       <c r="A51" s="21" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="B51" s="21">
         <v>0.0</v>
@@ -13140,7 +13249,7 @@
     </row>
     <row r="52" ht="15.75" customHeight="1">
       <c r="A52" s="21" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="B52" s="21">
         <v>0.6</v>
@@ -13184,7 +13293,7 @@
     </row>
     <row r="53" ht="15.75" customHeight="1">
       <c r="A53" s="21" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="B53" s="21">
         <v>0.4</v>
@@ -17967,4 +18076,5169 @@
   <pageSetup orientation="landscape"/>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="0" summaryRight="0"/>
+  </sheetPr>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr customHeight="1" defaultColWidth="11.22" defaultRowHeight="15.0"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="27" t="s">
+        <v>78</v>
+      </c>
+      <c r="B1" s="27" t="s">
+        <v>79</v>
+      </c>
+      <c r="C1" s="28" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="29" t="s">
+        <v>27</v>
+      </c>
+      <c r="B2" s="29" t="s">
+        <v>81</v>
+      </c>
+      <c r="C2" s="30">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="29" t="s">
+        <v>28</v>
+      </c>
+      <c r="B3" s="31" t="s">
+        <v>81</v>
+      </c>
+      <c r="C3" s="30">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="29" t="s">
+        <v>29</v>
+      </c>
+      <c r="B4" s="31" t="s">
+        <v>81</v>
+      </c>
+      <c r="C4" s="30">
+        <v>6.2</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="29" t="s">
+        <v>30</v>
+      </c>
+      <c r="B5" s="31" t="s">
+        <v>81</v>
+      </c>
+      <c r="C5" s="30">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="29" t="s">
+        <v>31</v>
+      </c>
+      <c r="B6" s="31" t="s">
+        <v>81</v>
+      </c>
+      <c r="C6" s="30">
+        <v>17.4</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="29" t="s">
+        <v>32</v>
+      </c>
+      <c r="B7" s="31" t="s">
+        <v>81</v>
+      </c>
+      <c r="C7" s="30">
+        <v>3.1</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="29" t="s">
+        <v>33</v>
+      </c>
+      <c r="B8" s="31" t="s">
+        <v>81</v>
+      </c>
+      <c r="C8" s="30">
+        <v>0.7</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="29" t="s">
+        <v>34</v>
+      </c>
+      <c r="B9" s="31" t="s">
+        <v>81</v>
+      </c>
+      <c r="C9" s="30">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="29" t="s">
+        <v>35</v>
+      </c>
+      <c r="B10" s="31" t="s">
+        <v>81</v>
+      </c>
+      <c r="C10" s="30">
+        <v>11.9</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="29" t="s">
+        <v>36</v>
+      </c>
+      <c r="B11" s="31" t="s">
+        <v>81</v>
+      </c>
+      <c r="C11" s="30">
+        <v>3.7</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="29" t="s">
+        <v>37</v>
+      </c>
+      <c r="B12" s="31" t="s">
+        <v>81</v>
+      </c>
+      <c r="C12" s="30">
+        <v>3.8</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="29" t="s">
+        <v>38</v>
+      </c>
+      <c r="B13" s="31" t="s">
+        <v>81</v>
+      </c>
+      <c r="C13" s="30">
+        <v>5.7</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="29" t="s">
+        <v>39</v>
+      </c>
+      <c r="B14" s="31" t="s">
+        <v>81</v>
+      </c>
+      <c r="C14" s="30">
+        <v>3.3</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="32" t="s">
+        <v>40</v>
+      </c>
+      <c r="B15" s="31" t="s">
+        <v>81</v>
+      </c>
+      <c r="C15" s="33">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="29" t="s">
+        <v>41</v>
+      </c>
+      <c r="B16" s="31" t="s">
+        <v>81</v>
+      </c>
+      <c r="C16" s="30">
+        <v>0.7</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="29" t="s">
+        <v>42</v>
+      </c>
+      <c r="B17" s="31" t="s">
+        <v>81</v>
+      </c>
+      <c r="C17" s="30">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="29" t="s">
+        <v>43</v>
+      </c>
+      <c r="B18" s="31" t="s">
+        <v>81</v>
+      </c>
+      <c r="C18" s="30">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="29" t="s">
+        <v>44</v>
+      </c>
+      <c r="B19" s="31" t="s">
+        <v>81</v>
+      </c>
+      <c r="C19" s="30">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="29" t="s">
+        <v>45</v>
+      </c>
+      <c r="B20" s="31" t="s">
+        <v>81</v>
+      </c>
+      <c r="C20" s="30">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="29" t="s">
+        <v>46</v>
+      </c>
+      <c r="B21" s="31" t="s">
+        <v>81</v>
+      </c>
+      <c r="C21" s="30">
+        <v>1.6</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="29" t="s">
+        <v>47</v>
+      </c>
+      <c r="B22" s="31" t="s">
+        <v>81</v>
+      </c>
+      <c r="C22" s="30">
+        <v>1.7</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="29" t="s">
+        <v>48</v>
+      </c>
+      <c r="B23" s="31" t="s">
+        <v>81</v>
+      </c>
+      <c r="C23" s="30">
+        <v>9.2</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="29" t="s">
+        <v>49</v>
+      </c>
+      <c r="B24" s="31" t="s">
+        <v>81</v>
+      </c>
+      <c r="C24" s="30">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="29" t="s">
+        <v>50</v>
+      </c>
+      <c r="B25" s="31" t="s">
+        <v>81</v>
+      </c>
+      <c r="C25" s="30">
+        <v>3.2</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="29" t="s">
+        <v>51</v>
+      </c>
+      <c r="B26" s="31" t="s">
+        <v>81</v>
+      </c>
+      <c r="C26" s="30">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="29" t="s">
+        <v>52</v>
+      </c>
+      <c r="B27" s="31" t="s">
+        <v>81</v>
+      </c>
+      <c r="C27" s="30">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="29" t="s">
+        <v>53</v>
+      </c>
+      <c r="B28" s="31" t="s">
+        <v>81</v>
+      </c>
+      <c r="C28" s="30">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="29" t="s">
+        <v>54</v>
+      </c>
+      <c r="B29" s="31" t="s">
+        <v>81</v>
+      </c>
+      <c r="C29" s="30">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="29" t="s">
+        <v>55</v>
+      </c>
+      <c r="B30" s="31" t="s">
+        <v>81</v>
+      </c>
+      <c r="C30" s="30">
+        <v>15.9</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="29" t="s">
+        <v>56</v>
+      </c>
+      <c r="B31" s="31" t="s">
+        <v>81</v>
+      </c>
+      <c r="C31" s="30">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="29" t="s">
+        <v>57</v>
+      </c>
+      <c r="B32" s="31" t="s">
+        <v>81</v>
+      </c>
+      <c r="C32" s="30">
+        <v>2.5</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="29" t="s">
+        <v>58</v>
+      </c>
+      <c r="B33" s="31" t="s">
+        <v>81</v>
+      </c>
+      <c r="C33" s="30">
+        <v>5.0</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="29" t="s">
+        <v>59</v>
+      </c>
+      <c r="B34" s="29" t="s">
+        <v>81</v>
+      </c>
+      <c r="C34" s="30">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="29" t="s">
+        <v>60</v>
+      </c>
+      <c r="B35" s="31" t="s">
+        <v>81</v>
+      </c>
+      <c r="C35" s="30">
+        <v>7.6</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="29" t="s">
+        <v>61</v>
+      </c>
+      <c r="B36" s="31" t="s">
+        <v>81</v>
+      </c>
+      <c r="C36" s="30">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="29" t="s">
+        <v>62</v>
+      </c>
+      <c r="B37" s="31" t="s">
+        <v>81</v>
+      </c>
+      <c r="C37" s="30">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="29" t="s">
+        <v>63</v>
+      </c>
+      <c r="B38" s="31" t="s">
+        <v>81</v>
+      </c>
+      <c r="C38" s="30">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="29" t="s">
+        <v>64</v>
+      </c>
+      <c r="B39" s="31" t="s">
+        <v>81</v>
+      </c>
+      <c r="C39" s="30">
+        <v>2.5</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="29" t="s">
+        <v>65</v>
+      </c>
+      <c r="B40" s="31" t="s">
+        <v>81</v>
+      </c>
+      <c r="C40" s="30">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="29" t="s">
+        <v>66</v>
+      </c>
+      <c r="B41" s="31" t="s">
+        <v>81</v>
+      </c>
+      <c r="C41" s="30">
+        <v>4.2</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="29" t="s">
+        <v>67</v>
+      </c>
+      <c r="B42" s="31" t="s">
+        <v>81</v>
+      </c>
+      <c r="C42" s="30">
+        <v>2.3</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="29" t="s">
+        <v>68</v>
+      </c>
+      <c r="B43" s="31" t="s">
+        <v>81</v>
+      </c>
+      <c r="C43" s="30">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="29" t="s">
+        <v>69</v>
+      </c>
+      <c r="B44" s="31" t="s">
+        <v>81</v>
+      </c>
+      <c r="C44" s="30">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="29" t="s">
+        <v>70</v>
+      </c>
+      <c r="B45" s="31" t="s">
+        <v>81</v>
+      </c>
+      <c r="C45" s="30">
+        <v>2.9</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="29" t="s">
+        <v>71</v>
+      </c>
+      <c r="B46" s="31" t="s">
+        <v>81</v>
+      </c>
+      <c r="C46" s="30">
+        <v>8.1</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="29" t="s">
+        <v>72</v>
+      </c>
+      <c r="B47" s="31" t="s">
+        <v>81</v>
+      </c>
+      <c r="C47" s="30">
+        <v>8.8</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="29" t="s">
+        <v>73</v>
+      </c>
+      <c r="B48" s="31" t="s">
+        <v>81</v>
+      </c>
+      <c r="C48" s="30">
+        <v>3.6</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="29" t="s">
+        <v>74</v>
+      </c>
+      <c r="B49" s="31" t="s">
+        <v>81</v>
+      </c>
+      <c r="C49" s="30">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="29" t="s">
+        <v>75</v>
+      </c>
+      <c r="B50" s="31" t="s">
+        <v>81</v>
+      </c>
+      <c r="C50" s="30">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="29" t="s">
+        <v>76</v>
+      </c>
+      <c r="B51" s="31" t="s">
+        <v>81</v>
+      </c>
+      <c r="C51" s="30">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="29" t="s">
+        <v>77</v>
+      </c>
+      <c r="B52" s="31" t="s">
+        <v>81</v>
+      </c>
+      <c r="C52" s="30">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="29" t="s">
+        <v>27</v>
+      </c>
+      <c r="B53" s="27" t="s">
+        <v>82</v>
+      </c>
+      <c r="C53" s="30">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="29" t="s">
+        <v>28</v>
+      </c>
+      <c r="B54" s="31" t="s">
+        <v>82</v>
+      </c>
+      <c r="C54" s="30">
+        <v>2.1</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="29" t="s">
+        <v>29</v>
+      </c>
+      <c r="B55" s="31" t="s">
+        <v>82</v>
+      </c>
+      <c r="C55" s="30">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="29" t="s">
+        <v>30</v>
+      </c>
+      <c r="B56" s="31" t="s">
+        <v>82</v>
+      </c>
+      <c r="C56" s="30">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="29" t="s">
+        <v>31</v>
+      </c>
+      <c r="B57" s="31" t="s">
+        <v>82</v>
+      </c>
+      <c r="C57" s="30">
+        <v>7.9</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="29" t="s">
+        <v>32</v>
+      </c>
+      <c r="B58" s="31" t="s">
+        <v>82</v>
+      </c>
+      <c r="C58" s="30">
+        <v>26.5</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="29" t="s">
+        <v>33</v>
+      </c>
+      <c r="B59" s="31" t="s">
+        <v>82</v>
+      </c>
+      <c r="C59" s="30">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="29" t="s">
+        <v>34</v>
+      </c>
+      <c r="B60" s="31" t="s">
+        <v>82</v>
+      </c>
+      <c r="C60" s="30">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="29" t="s">
+        <v>35</v>
+      </c>
+      <c r="B61" s="31" t="s">
+        <v>82</v>
+      </c>
+      <c r="C61" s="30">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="29" t="s">
+        <v>36</v>
+      </c>
+      <c r="B62" s="31" t="s">
+        <v>82</v>
+      </c>
+      <c r="C62" s="30">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="29" t="s">
+        <v>37</v>
+      </c>
+      <c r="B63" s="31" t="s">
+        <v>82</v>
+      </c>
+      <c r="C63" s="30">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="29" t="s">
+        <v>38</v>
+      </c>
+      <c r="B64" s="31" t="s">
+        <v>82</v>
+      </c>
+      <c r="C64" s="30">
+        <v>7.3</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="29" t="s">
+        <v>39</v>
+      </c>
+      <c r="B65" s="31" t="s">
+        <v>82</v>
+      </c>
+      <c r="C65" s="30">
+        <v>15.7</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="32" t="s">
+        <v>40</v>
+      </c>
+      <c r="B66" s="31" t="s">
+        <v>82</v>
+      </c>
+      <c r="C66" s="33">
+        <v>10.3</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="29" t="s">
+        <v>41</v>
+      </c>
+      <c r="B67" s="31" t="s">
+        <v>82</v>
+      </c>
+      <c r="C67" s="30">
+        <v>8.4</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="29" t="s">
+        <v>42</v>
+      </c>
+      <c r="B68" s="31" t="s">
+        <v>82</v>
+      </c>
+      <c r="C68" s="30">
+        <v>55.3</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="29" t="s">
+        <v>43</v>
+      </c>
+      <c r="B69" s="31" t="s">
+        <v>82</v>
+      </c>
+      <c r="C69" s="30">
+        <v>45.2</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="29" t="s">
+        <v>44</v>
+      </c>
+      <c r="B70" s="31" t="s">
+        <v>82</v>
+      </c>
+      <c r="C70" s="30">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="29" t="s">
+        <v>45</v>
+      </c>
+      <c r="B71" s="31" t="s">
+        <v>82</v>
+      </c>
+      <c r="C71" s="30">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="29" t="s">
+        <v>46</v>
+      </c>
+      <c r="B72" s="31" t="s">
+        <v>82</v>
+      </c>
+      <c r="C72" s="30">
+        <v>23.3</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" s="29" t="s">
+        <v>47</v>
+      </c>
+      <c r="B73" s="31" t="s">
+        <v>82</v>
+      </c>
+      <c r="C73" s="30">
+        <v>1.3</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" s="29" t="s">
+        <v>48</v>
+      </c>
+      <c r="B74" s="31" t="s">
+        <v>82</v>
+      </c>
+      <c r="C74" s="30">
+        <v>1.1</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" s="29" t="s">
+        <v>49</v>
+      </c>
+      <c r="B75" s="31" t="s">
+        <v>82</v>
+      </c>
+      <c r="C75" s="30">
+        <v>6.7</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" s="29" t="s">
+        <v>50</v>
+      </c>
+      <c r="B76" s="31" t="s">
+        <v>82</v>
+      </c>
+      <c r="C76" s="30">
+        <v>21.7</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" s="29" t="s">
+        <v>51</v>
+      </c>
+      <c r="B77" s="31" t="s">
+        <v>82</v>
+      </c>
+      <c r="C77" s="30">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" s="29" t="s">
+        <v>52</v>
+      </c>
+      <c r="B78" s="27" t="s">
+        <v>82</v>
+      </c>
+      <c r="C78" s="30">
+        <v>8.5</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" s="29" t="s">
+        <v>53</v>
+      </c>
+      <c r="B79" s="31" t="s">
+        <v>82</v>
+      </c>
+      <c r="C79" s="30">
+        <v>11.5</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" s="29" t="s">
+        <v>54</v>
+      </c>
+      <c r="B80" s="31" t="s">
+        <v>82</v>
+      </c>
+      <c r="C80" s="30">
+        <v>25.2</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" s="29" t="s">
+        <v>55</v>
+      </c>
+      <c r="B81" s="31" t="s">
+        <v>82</v>
+      </c>
+      <c r="C81" s="30">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" s="29" t="s">
+        <v>56</v>
+      </c>
+      <c r="B82" s="31" t="s">
+        <v>82</v>
+      </c>
+      <c r="C82" s="30">
+        <v>2.9</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" s="29" t="s">
+        <v>57</v>
+      </c>
+      <c r="B83" s="31" t="s">
+        <v>82</v>
+      </c>
+      <c r="C83" s="30">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" s="29" t="s">
+        <v>58</v>
+      </c>
+      <c r="B84" s="31" t="s">
+        <v>82</v>
+      </c>
+      <c r="C84" s="30">
+        <v>30.2</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" s="29" t="s">
+        <v>59</v>
+      </c>
+      <c r="B85" s="31" t="s">
+        <v>82</v>
+      </c>
+      <c r="C85" s="30">
+        <v>3.5</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" s="29" t="s">
+        <v>60</v>
+      </c>
+      <c r="B86" s="31" t="s">
+        <v>82</v>
+      </c>
+      <c r="C86" s="30">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" s="29" t="s">
+        <v>61</v>
+      </c>
+      <c r="B87" s="31" t="s">
+        <v>82</v>
+      </c>
+      <c r="C87" s="30">
+        <v>34.1</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" s="29" t="s">
+        <v>62</v>
+      </c>
+      <c r="B88" s="31" t="s">
+        <v>82</v>
+      </c>
+      <c r="C88" s="30">
+        <v>2.1</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" s="29" t="s">
+        <v>63</v>
+      </c>
+      <c r="B89" s="31" t="s">
+        <v>82</v>
+      </c>
+      <c r="C89" s="30">
+        <v>41.4</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" s="29" t="s">
+        <v>64</v>
+      </c>
+      <c r="B90" s="31" t="s">
+        <v>82</v>
+      </c>
+      <c r="C90" s="30">
+        <v>15.7</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" s="29" t="s">
+        <v>65</v>
+      </c>
+      <c r="B91" s="31" t="s">
+        <v>82</v>
+      </c>
+      <c r="C91" s="30">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" s="29" t="s">
+        <v>66</v>
+      </c>
+      <c r="B92" s="31" t="s">
+        <v>82</v>
+      </c>
+      <c r="C92" s="30">
+        <v>2.2</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" s="29" t="s">
+        <v>67</v>
+      </c>
+      <c r="B93" s="31" t="s">
+        <v>82</v>
+      </c>
+      <c r="C93" s="30">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" s="29" t="s">
+        <v>68</v>
+      </c>
+      <c r="B94" s="31" t="s">
+        <v>82</v>
+      </c>
+      <c r="C94" s="30">
+        <v>52.3</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" s="29" t="s">
+        <v>69</v>
+      </c>
+      <c r="B95" s="31" t="s">
+        <v>82</v>
+      </c>
+      <c r="C95" s="30">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" s="29" t="s">
+        <v>70</v>
+      </c>
+      <c r="B96" s="31" t="s">
+        <v>82</v>
+      </c>
+      <c r="C96" s="30">
+        <v>20.7</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" s="29" t="s">
+        <v>71</v>
+      </c>
+      <c r="B97" s="31" t="s">
+        <v>82</v>
+      </c>
+      <c r="C97" s="30">
+        <v>1.9</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" s="29" t="s">
+        <v>72</v>
+      </c>
+      <c r="B98" s="31" t="s">
+        <v>82</v>
+      </c>
+      <c r="C98" s="30">
+        <v>15.7</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" s="29" t="s">
+        <v>73</v>
+      </c>
+      <c r="B99" s="31" t="s">
+        <v>82</v>
+      </c>
+      <c r="C99" s="30">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" s="29" t="s">
+        <v>74</v>
+      </c>
+      <c r="B100" s="31" t="s">
+        <v>82</v>
+      </c>
+      <c r="C100" s="30">
+        <v>8.7</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" s="29" t="s">
+        <v>75</v>
+      </c>
+      <c r="B101" s="31" t="s">
+        <v>82</v>
+      </c>
+      <c r="C101" s="30">
+        <v>2.5</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" s="29" t="s">
+        <v>76</v>
+      </c>
+      <c r="B102" s="31" t="s">
+        <v>82</v>
+      </c>
+      <c r="C102" s="30">
+        <v>2.5</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" s="29" t="s">
+        <v>77</v>
+      </c>
+      <c r="B103" s="31" t="s">
+        <v>82</v>
+      </c>
+      <c r="C103" s="30">
+        <v>19.4</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" s="29" t="s">
+        <v>27</v>
+      </c>
+      <c r="B104" s="31" t="s">
+        <v>83</v>
+      </c>
+      <c r="C104" s="30">
+        <v>8.8</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" s="29" t="s">
+        <v>28</v>
+      </c>
+      <c r="B105" s="31" t="s">
+        <v>83</v>
+      </c>
+      <c r="C105" s="30">
+        <v>27.7</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" s="29" t="s">
+        <v>29</v>
+      </c>
+      <c r="B106" s="31" t="s">
+        <v>83</v>
+      </c>
+      <c r="C106" s="30">
+        <v>5.4</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" s="29" t="s">
+        <v>30</v>
+      </c>
+      <c r="B107" s="31" t="s">
+        <v>83</v>
+      </c>
+      <c r="C107" s="30">
+        <v>7.3</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" s="29" t="s">
+        <v>31</v>
+      </c>
+      <c r="B108" s="31" t="s">
+        <v>83</v>
+      </c>
+      <c r="C108" s="30">
+        <v>7.2</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" s="29" t="s">
+        <v>32</v>
+      </c>
+      <c r="B109" s="31" t="s">
+        <v>83</v>
+      </c>
+      <c r="C109" s="30">
+        <v>2.8</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" s="29" t="s">
+        <v>33</v>
+      </c>
+      <c r="B110" s="31" t="s">
+        <v>83</v>
+      </c>
+      <c r="C110" s="30">
+        <v>0.7</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" s="29" t="s">
+        <v>34</v>
+      </c>
+      <c r="B111" s="31" t="s">
+        <v>83</v>
+      </c>
+      <c r="C111" s="30">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" s="29" t="s">
+        <v>35</v>
+      </c>
+      <c r="B112" s="31" t="s">
+        <v>83</v>
+      </c>
+      <c r="C112" s="30">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" s="29" t="s">
+        <v>36</v>
+      </c>
+      <c r="B113" s="31" t="s">
+        <v>83</v>
+      </c>
+      <c r="C113" s="30">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" s="29" t="s">
+        <v>37</v>
+      </c>
+      <c r="B114" s="31" t="s">
+        <v>83</v>
+      </c>
+      <c r="C114" s="30">
+        <v>3.2</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" s="29" t="s">
+        <v>38</v>
+      </c>
+      <c r="B115" s="31" t="s">
+        <v>83</v>
+      </c>
+      <c r="C115" s="30">
+        <v>1.2</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" s="29" t="s">
+        <v>39</v>
+      </c>
+      <c r="B116" s="31" t="s">
+        <v>83</v>
+      </c>
+      <c r="C116" s="30">
+        <v>51.0</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" s="32" t="s">
+        <v>40</v>
+      </c>
+      <c r="B117" s="31" t="s">
+        <v>83</v>
+      </c>
+      <c r="C117" s="33">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" s="29" t="s">
+        <v>41</v>
+      </c>
+      <c r="B118" s="31" t="s">
+        <v>83</v>
+      </c>
+      <c r="C118" s="30">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" s="29" t="s">
+        <v>42</v>
+      </c>
+      <c r="B119" s="31" t="s">
+        <v>83</v>
+      </c>
+      <c r="C119" s="30">
+        <v>1.4</v>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" s="29" t="s">
+        <v>43</v>
+      </c>
+      <c r="B120" s="31" t="s">
+        <v>83</v>
+      </c>
+      <c r="C120" s="30">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" s="29" t="s">
+        <v>44</v>
+      </c>
+      <c r="B121" s="31" t="s">
+        <v>83</v>
+      </c>
+      <c r="C121" s="30">
+        <v>7.5</v>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" s="29" t="s">
+        <v>45</v>
+      </c>
+      <c r="B122" s="31" t="s">
+        <v>83</v>
+      </c>
+      <c r="C122" s="30">
+        <v>1.2</v>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" s="29" t="s">
+        <v>46</v>
+      </c>
+      <c r="B123" s="31" t="s">
+        <v>83</v>
+      </c>
+      <c r="C123" s="30">
+        <v>27.1</v>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" s="29" t="s">
+        <v>47</v>
+      </c>
+      <c r="B124" s="31" t="s">
+        <v>83</v>
+      </c>
+      <c r="C124" s="30">
+        <v>5.3</v>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" s="29" t="s">
+        <v>48</v>
+      </c>
+      <c r="B125" s="31" t="s">
+        <v>83</v>
+      </c>
+      <c r="C125" s="30">
+        <v>2.0</v>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" s="29" t="s">
+        <v>49</v>
+      </c>
+      <c r="B126" s="31" t="s">
+        <v>83</v>
+      </c>
+      <c r="C126" s="30">
+        <v>0.7</v>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" s="29" t="s">
+        <v>50</v>
+      </c>
+      <c r="B127" s="31" t="s">
+        <v>83</v>
+      </c>
+      <c r="C127" s="30">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" s="29" t="s">
+        <v>51</v>
+      </c>
+      <c r="B128" s="31" t="s">
+        <v>83</v>
+      </c>
+      <c r="C128" s="30">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" s="29" t="s">
+        <v>52</v>
+      </c>
+      <c r="B129" s="31" t="s">
+        <v>83</v>
+      </c>
+      <c r="C129" s="30">
+        <v>2.4</v>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" s="29" t="s">
+        <v>53</v>
+      </c>
+      <c r="B130" s="31" t="s">
+        <v>83</v>
+      </c>
+      <c r="C130" s="30">
+        <v>40.0</v>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" s="29" t="s">
+        <v>54</v>
+      </c>
+      <c r="B131" s="31" t="s">
+        <v>83</v>
+      </c>
+      <c r="C131" s="30">
+        <v>3.3</v>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" s="29" t="s">
+        <v>55</v>
+      </c>
+      <c r="B132" s="31" t="s">
+        <v>83</v>
+      </c>
+      <c r="C132" s="30">
+        <v>4.7</v>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" s="29" t="s">
+        <v>56</v>
+      </c>
+      <c r="B133" s="31" t="s">
+        <v>83</v>
+      </c>
+      <c r="C133" s="30">
+        <v>6.7</v>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" s="29" t="s">
+        <v>57</v>
+      </c>
+      <c r="B134" s="31" t="s">
+        <v>83</v>
+      </c>
+      <c r="C134" s="30">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" s="29" t="s">
+        <v>58</v>
+      </c>
+      <c r="B135" s="31" t="s">
+        <v>83</v>
+      </c>
+      <c r="C135" s="30">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" s="29" t="s">
+        <v>59</v>
+      </c>
+      <c r="B136" s="31" t="s">
+        <v>83</v>
+      </c>
+      <c r="C136" s="30">
+        <v>22.0</v>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" s="29" t="s">
+        <v>60</v>
+      </c>
+      <c r="B137" s="31" t="s">
+        <v>83</v>
+      </c>
+      <c r="C137" s="30">
+        <v>5.8</v>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" s="29" t="s">
+        <v>61</v>
+      </c>
+      <c r="B138" s="31" t="s">
+        <v>83</v>
+      </c>
+      <c r="C138" s="30">
+        <v>5.2</v>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" s="29" t="s">
+        <v>62</v>
+      </c>
+      <c r="B139" s="31" t="s">
+        <v>83</v>
+      </c>
+      <c r="C139" s="30">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" s="29" t="s">
+        <v>63</v>
+      </c>
+      <c r="B140" s="31" t="s">
+        <v>83</v>
+      </c>
+      <c r="C140" s="30">
+        <v>3.3</v>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" s="29" t="s">
+        <v>64</v>
+      </c>
+      <c r="B141" s="31" t="s">
+        <v>83</v>
+      </c>
+      <c r="C141" s="30">
+        <v>46.4</v>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" s="29" t="s">
+        <v>65</v>
+      </c>
+      <c r="B142" s="31" t="s">
+        <v>83</v>
+      </c>
+      <c r="C142" s="30">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" s="29" t="s">
+        <v>66</v>
+      </c>
+      <c r="B143" s="31" t="s">
+        <v>83</v>
+      </c>
+      <c r="C143" s="30">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" s="29" t="s">
+        <v>67</v>
+      </c>
+      <c r="B144" s="31" t="s">
+        <v>83</v>
+      </c>
+      <c r="C144" s="30">
+        <v>3.0</v>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" s="29" t="s">
+        <v>68</v>
+      </c>
+      <c r="B145" s="31" t="s">
+        <v>83</v>
+      </c>
+      <c r="C145" s="30">
+        <v>29.7</v>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" s="29" t="s">
+        <v>69</v>
+      </c>
+      <c r="B146" s="31" t="s">
+        <v>83</v>
+      </c>
+      <c r="C146" s="30">
+        <v>15.1</v>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" s="29" t="s">
+        <v>70</v>
+      </c>
+      <c r="B147" s="31" t="s">
+        <v>83</v>
+      </c>
+      <c r="C147" s="30">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" s="29" t="s">
+        <v>71</v>
+      </c>
+      <c r="B148" s="31" t="s">
+        <v>83</v>
+      </c>
+      <c r="C148" s="30">
+        <v>1.8</v>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" s="29" t="s">
+        <v>72</v>
+      </c>
+      <c r="B149" s="31" t="s">
+        <v>83</v>
+      </c>
+      <c r="C149" s="30">
+        <v>50.0</v>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" s="29" t="s">
+        <v>73</v>
+      </c>
+      <c r="B150" s="31" t="s">
+        <v>83</v>
+      </c>
+      <c r="C150" s="30">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" s="29" t="s">
+        <v>74</v>
+      </c>
+      <c r="B151" s="31" t="s">
+        <v>83</v>
+      </c>
+      <c r="C151" s="30">
+        <v>64.6</v>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" s="29" t="s">
+        <v>75</v>
+      </c>
+      <c r="B152" s="31" t="s">
+        <v>83</v>
+      </c>
+      <c r="C152" s="30">
+        <v>2.3</v>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" s="29" t="s">
+        <v>76</v>
+      </c>
+      <c r="B153" s="31" t="s">
+        <v>83</v>
+      </c>
+      <c r="C153" s="30">
+        <v>3.8</v>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" s="29" t="s">
+        <v>77</v>
+      </c>
+      <c r="B154" s="31" t="s">
+        <v>83</v>
+      </c>
+      <c r="C154" s="30">
+        <v>2.3</v>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155" s="29" t="s">
+        <v>27</v>
+      </c>
+      <c r="B155" s="31" t="s">
+        <v>84</v>
+      </c>
+      <c r="C155" s="30">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="156">
+      <c r="A156" s="29" t="s">
+        <v>28</v>
+      </c>
+      <c r="B156" s="31" t="s">
+        <v>84</v>
+      </c>
+      <c r="C156" s="30">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="157">
+      <c r="A157" s="29" t="s">
+        <v>29</v>
+      </c>
+      <c r="B157" s="31" t="s">
+        <v>84</v>
+      </c>
+      <c r="C157" s="30">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="158">
+      <c r="A158" s="29" t="s">
+        <v>30</v>
+      </c>
+      <c r="B158" s="31" t="s">
+        <v>84</v>
+      </c>
+      <c r="C158" s="30">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="159">
+      <c r="A159" s="29" t="s">
+        <v>31</v>
+      </c>
+      <c r="B159" s="31" t="s">
+        <v>84</v>
+      </c>
+      <c r="C159" s="30">
+        <v>5.8</v>
+      </c>
+    </row>
+    <row r="160">
+      <c r="A160" s="29" t="s">
+        <v>32</v>
+      </c>
+      <c r="B160" s="31" t="s">
+        <v>84</v>
+      </c>
+      <c r="C160" s="30">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="161">
+      <c r="A161" s="29" t="s">
+        <v>33</v>
+      </c>
+      <c r="B161" s="31" t="s">
+        <v>84</v>
+      </c>
+      <c r="C161" s="30">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="162">
+      <c r="A162" s="29" t="s">
+        <v>34</v>
+      </c>
+      <c r="B162" s="31" t="s">
+        <v>84</v>
+      </c>
+      <c r="C162" s="30">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="163">
+      <c r="A163" s="29" t="s">
+        <v>35</v>
+      </c>
+      <c r="B163" s="31" t="s">
+        <v>84</v>
+      </c>
+      <c r="C163" s="30">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="164">
+      <c r="A164" s="29" t="s">
+        <v>36</v>
+      </c>
+      <c r="B164" s="31" t="s">
+        <v>84</v>
+      </c>
+      <c r="C164" s="30">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="165">
+      <c r="A165" s="29" t="s">
+        <v>37</v>
+      </c>
+      <c r="B165" s="31" t="s">
+        <v>84</v>
+      </c>
+      <c r="C165" s="30">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="166">
+      <c r="A166" s="29" t="s">
+        <v>38</v>
+      </c>
+      <c r="B166" s="31" t="s">
+        <v>84</v>
+      </c>
+      <c r="C166" s="30">
+        <v>1.8</v>
+      </c>
+    </row>
+    <row r="167">
+      <c r="A167" s="29" t="s">
+        <v>39</v>
+      </c>
+      <c r="B167" s="31" t="s">
+        <v>84</v>
+      </c>
+      <c r="C167" s="30">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="168">
+      <c r="A168" s="32" t="s">
+        <v>40</v>
+      </c>
+      <c r="B168" s="31" t="s">
+        <v>84</v>
+      </c>
+      <c r="C168" s="33">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="169">
+      <c r="A169" s="29" t="s">
+        <v>41</v>
+      </c>
+      <c r="B169" s="31" t="s">
+        <v>84</v>
+      </c>
+      <c r="C169" s="30">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="170">
+      <c r="A170" s="29" t="s">
+        <v>42</v>
+      </c>
+      <c r="B170" s="31" t="s">
+        <v>84</v>
+      </c>
+      <c r="C170" s="30">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="171">
+      <c r="A171" s="29" t="s">
+        <v>43</v>
+      </c>
+      <c r="B171" s="31" t="s">
+        <v>84</v>
+      </c>
+      <c r="C171" s="30">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="172">
+      <c r="A172" s="29" t="s">
+        <v>44</v>
+      </c>
+      <c r="B172" s="31" t="s">
+        <v>84</v>
+      </c>
+      <c r="C172" s="30">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="173">
+      <c r="A173" s="29" t="s">
+        <v>45</v>
+      </c>
+      <c r="B173" s="31" t="s">
+        <v>84</v>
+      </c>
+      <c r="C173" s="30">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="174">
+      <c r="A174" s="29" t="s">
+        <v>46</v>
+      </c>
+      <c r="B174" s="31" t="s">
+        <v>84</v>
+      </c>
+      <c r="C174" s="30">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="175">
+      <c r="A175" s="29" t="s">
+        <v>47</v>
+      </c>
+      <c r="B175" s="31" t="s">
+        <v>84</v>
+      </c>
+      <c r="C175" s="30">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="176">
+      <c r="A176" s="29" t="s">
+        <v>48</v>
+      </c>
+      <c r="B176" s="31" t="s">
+        <v>84</v>
+      </c>
+      <c r="C176" s="30">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="177">
+      <c r="A177" s="29" t="s">
+        <v>49</v>
+      </c>
+      <c r="B177" s="31" t="s">
+        <v>84</v>
+      </c>
+      <c r="C177" s="30">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="178">
+      <c r="A178" s="29" t="s">
+        <v>50</v>
+      </c>
+      <c r="B178" s="31" t="s">
+        <v>84</v>
+      </c>
+      <c r="C178" s="30">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="179">
+      <c r="A179" s="29" t="s">
+        <v>51</v>
+      </c>
+      <c r="B179" s="31" t="s">
+        <v>84</v>
+      </c>
+      <c r="C179" s="30">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="180">
+      <c r="A180" s="29" t="s">
+        <v>52</v>
+      </c>
+      <c r="B180" s="31" t="s">
+        <v>84</v>
+      </c>
+      <c r="C180" s="30">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="181">
+      <c r="A181" s="29" t="s">
+        <v>53</v>
+      </c>
+      <c r="B181" s="31" t="s">
+        <v>84</v>
+      </c>
+      <c r="C181" s="30">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="182">
+      <c r="A182" s="29" t="s">
+        <v>54</v>
+      </c>
+      <c r="B182" s="31" t="s">
+        <v>84</v>
+      </c>
+      <c r="C182" s="30">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="183">
+      <c r="A183" s="29" t="s">
+        <v>55</v>
+      </c>
+      <c r="B183" s="31" t="s">
+        <v>84</v>
+      </c>
+      <c r="C183" s="30">
+        <v>9.4</v>
+      </c>
+    </row>
+    <row r="184">
+      <c r="A184" s="29" t="s">
+        <v>56</v>
+      </c>
+      <c r="B184" s="31" t="s">
+        <v>84</v>
+      </c>
+      <c r="C184" s="30">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="185">
+      <c r="A185" s="29" t="s">
+        <v>57</v>
+      </c>
+      <c r="B185" s="31" t="s">
+        <v>84</v>
+      </c>
+      <c r="C185" s="30">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="186">
+      <c r="A186" s="29" t="s">
+        <v>58</v>
+      </c>
+      <c r="B186" s="31" t="s">
+        <v>84</v>
+      </c>
+      <c r="C186" s="30">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="187">
+      <c r="A187" s="29" t="s">
+        <v>59</v>
+      </c>
+      <c r="B187" s="31" t="s">
+        <v>84</v>
+      </c>
+      <c r="C187" s="30">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="188">
+      <c r="A188" s="29" t="s">
+        <v>60</v>
+      </c>
+      <c r="B188" s="31" t="s">
+        <v>84</v>
+      </c>
+      <c r="C188" s="30">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="189">
+      <c r="A189" s="29" t="s">
+        <v>61</v>
+      </c>
+      <c r="B189" s="31" t="s">
+        <v>84</v>
+      </c>
+      <c r="C189" s="30">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="190">
+      <c r="A190" s="29" t="s">
+        <v>62</v>
+      </c>
+      <c r="B190" s="31" t="s">
+        <v>84</v>
+      </c>
+      <c r="C190" s="30">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="191">
+      <c r="A191" s="29" t="s">
+        <v>63</v>
+      </c>
+      <c r="B191" s="31" t="s">
+        <v>84</v>
+      </c>
+      <c r="C191" s="30">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="192">
+      <c r="A192" s="29" t="s">
+        <v>64</v>
+      </c>
+      <c r="B192" s="31" t="s">
+        <v>84</v>
+      </c>
+      <c r="C192" s="30">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="193">
+      <c r="A193" s="29" t="s">
+        <v>65</v>
+      </c>
+      <c r="B193" s="31" t="s">
+        <v>84</v>
+      </c>
+      <c r="C193" s="30">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="194">
+      <c r="A194" s="29" t="s">
+        <v>66</v>
+      </c>
+      <c r="B194" s="31" t="s">
+        <v>84</v>
+      </c>
+      <c r="C194" s="30">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="195">
+      <c r="A195" s="29" t="s">
+        <v>67</v>
+      </c>
+      <c r="B195" s="31" t="s">
+        <v>84</v>
+      </c>
+      <c r="C195" s="30">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="196">
+      <c r="A196" s="29" t="s">
+        <v>68</v>
+      </c>
+      <c r="B196" s="31" t="s">
+        <v>84</v>
+      </c>
+      <c r="C196" s="30">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="197">
+      <c r="A197" s="29" t="s">
+        <v>69</v>
+      </c>
+      <c r="B197" s="31" t="s">
+        <v>84</v>
+      </c>
+      <c r="C197" s="30">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="198">
+      <c r="A198" s="29" t="s">
+        <v>70</v>
+      </c>
+      <c r="B198" s="31" t="s">
+        <v>84</v>
+      </c>
+      <c r="C198" s="30">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="199">
+      <c r="A199" s="29" t="s">
+        <v>71</v>
+      </c>
+      <c r="B199" s="31" t="s">
+        <v>84</v>
+      </c>
+      <c r="C199" s="30">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="200">
+      <c r="A200" s="29" t="s">
+        <v>72</v>
+      </c>
+      <c r="B200" s="31" t="s">
+        <v>84</v>
+      </c>
+      <c r="C200" s="30">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="201">
+      <c r="A201" s="29" t="s">
+        <v>73</v>
+      </c>
+      <c r="B201" s="31" t="s">
+        <v>84</v>
+      </c>
+      <c r="C201" s="30">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="202">
+      <c r="A202" s="29" t="s">
+        <v>74</v>
+      </c>
+      <c r="B202" s="31" t="s">
+        <v>84</v>
+      </c>
+      <c r="C202" s="30">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="203">
+      <c r="A203" s="29" t="s">
+        <v>75</v>
+      </c>
+      <c r="B203" s="31" t="s">
+        <v>84</v>
+      </c>
+      <c r="C203" s="30">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="204">
+      <c r="A204" s="29" t="s">
+        <v>76</v>
+      </c>
+      <c r="B204" s="31" t="s">
+        <v>84</v>
+      </c>
+      <c r="C204" s="30">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="205">
+      <c r="A205" s="29" t="s">
+        <v>77</v>
+      </c>
+      <c r="B205" s="31" t="s">
+        <v>84</v>
+      </c>
+      <c r="C205" s="30">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="206">
+      <c r="A206" s="29" t="s">
+        <v>27</v>
+      </c>
+      <c r="B206" s="31" t="s">
+        <v>85</v>
+      </c>
+      <c r="C206" s="30">
+        <v>32.2</v>
+      </c>
+    </row>
+    <row r="207">
+      <c r="A207" s="29" t="s">
+        <v>28</v>
+      </c>
+      <c r="B207" s="31" t="s">
+        <v>85</v>
+      </c>
+      <c r="C207" s="30">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="208">
+      <c r="A208" s="29" t="s">
+        <v>29</v>
+      </c>
+      <c r="B208" s="31" t="s">
+        <v>85</v>
+      </c>
+      <c r="C208" s="30">
+        <v>29.1</v>
+      </c>
+    </row>
+    <row r="209">
+      <c r="A209" s="29" t="s">
+        <v>30</v>
+      </c>
+      <c r="B209" s="31" t="s">
+        <v>85</v>
+      </c>
+      <c r="C209" s="30">
+        <v>22.5</v>
+      </c>
+    </row>
+    <row r="210">
+      <c r="A210" s="29" t="s">
+        <v>31</v>
+      </c>
+      <c r="B210" s="31" t="s">
+        <v>85</v>
+      </c>
+      <c r="C210" s="30">
+        <v>8.4</v>
+      </c>
+    </row>
+    <row r="211">
+      <c r="A211" s="29" t="s">
+        <v>32</v>
+      </c>
+      <c r="B211" s="31" t="s">
+        <v>85</v>
+      </c>
+      <c r="C211" s="30">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="212">
+      <c r="A212" s="29" t="s">
+        <v>33</v>
+      </c>
+      <c r="B212" s="31" t="s">
+        <v>85</v>
+      </c>
+      <c r="C212" s="30">
+        <v>39.0</v>
+      </c>
+    </row>
+    <row r="213">
+      <c r="A213" s="29" t="s">
+        <v>34</v>
+      </c>
+      <c r="B213" s="31" t="s">
+        <v>85</v>
+      </c>
+      <c r="C213" s="30">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="214">
+      <c r="A214" s="29" t="s">
+        <v>35</v>
+      </c>
+      <c r="B214" s="31" t="s">
+        <v>85</v>
+      </c>
+      <c r="C214" s="30">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="215">
+      <c r="A215" s="29" t="s">
+        <v>36</v>
+      </c>
+      <c r="B215" s="31" t="s">
+        <v>85</v>
+      </c>
+      <c r="C215" s="30">
+        <v>11.5</v>
+      </c>
+    </row>
+    <row r="216">
+      <c r="A216" s="29" t="s">
+        <v>37</v>
+      </c>
+      <c r="B216" s="31" t="s">
+        <v>85</v>
+      </c>
+      <c r="C216" s="30">
+        <v>26.8</v>
+      </c>
+    </row>
+    <row r="217">
+      <c r="A217" s="29" t="s">
+        <v>38</v>
+      </c>
+      <c r="B217" s="31" t="s">
+        <v>85</v>
+      </c>
+      <c r="C217" s="30">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="218">
+      <c r="A218" s="29" t="s">
+        <v>39</v>
+      </c>
+      <c r="B218" s="31" t="s">
+        <v>85</v>
+      </c>
+      <c r="C218" s="30">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="219">
+      <c r="A219" s="32" t="s">
+        <v>40</v>
+      </c>
+      <c r="B219" s="31" t="s">
+        <v>85</v>
+      </c>
+      <c r="C219" s="33">
+        <v>53.3</v>
+      </c>
+    </row>
+    <row r="220">
+      <c r="A220" s="29" t="s">
+        <v>41</v>
+      </c>
+      <c r="B220" s="31" t="s">
+        <v>85</v>
+      </c>
+      <c r="C220" s="30">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="221">
+      <c r="A221" s="29" t="s">
+        <v>42</v>
+      </c>
+      <c r="B221" s="31" t="s">
+        <v>85</v>
+      </c>
+      <c r="C221" s="30">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="222">
+      <c r="A222" s="29" t="s">
+        <v>43</v>
+      </c>
+      <c r="B222" s="31" t="s">
+        <v>85</v>
+      </c>
+      <c r="C222" s="30">
+        <v>15.1</v>
+      </c>
+    </row>
+    <row r="223">
+      <c r="A223" s="29" t="s">
+        <v>44</v>
+      </c>
+      <c r="B223" s="31" t="s">
+        <v>85</v>
+      </c>
+      <c r="C223" s="30">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="224">
+      <c r="A224" s="29" t="s">
+        <v>45</v>
+      </c>
+      <c r="B224" s="31" t="s">
+        <v>85</v>
+      </c>
+      <c r="C224" s="30">
+        <v>17.6</v>
+      </c>
+    </row>
+    <row r="225">
+      <c r="A225" s="29" t="s">
+        <v>46</v>
+      </c>
+      <c r="B225" s="31" t="s">
+        <v>85</v>
+      </c>
+      <c r="C225" s="30">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="226">
+      <c r="A226" s="29" t="s">
+        <v>47</v>
+      </c>
+      <c r="B226" s="31" t="s">
+        <v>85</v>
+      </c>
+      <c r="C226" s="30">
+        <v>37.7</v>
+      </c>
+    </row>
+    <row r="227">
+      <c r="A227" s="29" t="s">
+        <v>48</v>
+      </c>
+      <c r="B227" s="31" t="s">
+        <v>85</v>
+      </c>
+      <c r="C227" s="30">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="228">
+      <c r="A228" s="29" t="s">
+        <v>49</v>
+      </c>
+      <c r="B228" s="31" t="s">
+        <v>85</v>
+      </c>
+      <c r="C228" s="30">
+        <v>29.6</v>
+      </c>
+    </row>
+    <row r="229">
+      <c r="A229" s="29" t="s">
+        <v>50</v>
+      </c>
+      <c r="B229" s="31" t="s">
+        <v>85</v>
+      </c>
+      <c r="C229" s="30">
+        <v>23.7</v>
+      </c>
+    </row>
+    <row r="230">
+      <c r="A230" s="29" t="s">
+        <v>51</v>
+      </c>
+      <c r="B230" s="31" t="s">
+        <v>85</v>
+      </c>
+      <c r="C230" s="30">
+        <v>17.1</v>
+      </c>
+    </row>
+    <row r="231">
+      <c r="A231" s="29" t="s">
+        <v>52</v>
+      </c>
+      <c r="B231" s="31" t="s">
+        <v>85</v>
+      </c>
+      <c r="C231" s="30">
+        <v>5.5</v>
+      </c>
+    </row>
+    <row r="232">
+      <c r="A232" s="29" t="s">
+        <v>53</v>
+      </c>
+      <c r="B232" s="31" t="s">
+        <v>85</v>
+      </c>
+      <c r="C232" s="30">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="233">
+      <c r="A233" s="29" t="s">
+        <v>54</v>
+      </c>
+      <c r="B233" s="31" t="s">
+        <v>85</v>
+      </c>
+      <c r="C233" s="30">
+        <v>17.8</v>
+      </c>
+    </row>
+    <row r="234">
+      <c r="A234" s="29" t="s">
+        <v>55</v>
+      </c>
+      <c r="B234" s="31" t="s">
+        <v>85</v>
+      </c>
+      <c r="C234" s="30">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="235">
+      <c r="A235" s="29" t="s">
+        <v>56</v>
+      </c>
+      <c r="B235" s="31" t="s">
+        <v>85</v>
+      </c>
+      <c r="C235" s="30">
+        <v>56.5</v>
+      </c>
+    </row>
+    <row r="236">
+      <c r="A236" s="29" t="s">
+        <v>57</v>
+      </c>
+      <c r="B236" s="31" t="s">
+        <v>85</v>
+      </c>
+      <c r="C236" s="30">
+        <v>45.8</v>
+      </c>
+    </row>
+    <row r="237">
+      <c r="A237" s="29" t="s">
+        <v>58</v>
+      </c>
+      <c r="B237" s="31" t="s">
+        <v>85</v>
+      </c>
+      <c r="C237" s="30">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="238">
+      <c r="A238" s="29" t="s">
+        <v>59</v>
+      </c>
+      <c r="B238" s="31" t="s">
+        <v>85</v>
+      </c>
+      <c r="C238" s="30">
+        <v>24.9</v>
+      </c>
+    </row>
+    <row r="239">
+      <c r="A239" s="29" t="s">
+        <v>60</v>
+      </c>
+      <c r="B239" s="31" t="s">
+        <v>85</v>
+      </c>
+      <c r="C239" s="30">
+        <v>32.8</v>
+      </c>
+    </row>
+    <row r="240">
+      <c r="A240" s="29" t="s">
+        <v>61</v>
+      </c>
+      <c r="B240" s="31" t="s">
+        <v>85</v>
+      </c>
+      <c r="C240" s="30">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="241">
+      <c r="A241" s="29" t="s">
+        <v>62</v>
+      </c>
+      <c r="B241" s="31" t="s">
+        <v>85</v>
+      </c>
+      <c r="C241" s="30">
+        <v>14.2</v>
+      </c>
+    </row>
+    <row r="242">
+      <c r="A242" s="29" t="s">
+        <v>63</v>
+      </c>
+      <c r="B242" s="31" t="s">
+        <v>85</v>
+      </c>
+      <c r="C242" s="30">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="243">
+      <c r="A243" s="29" t="s">
+        <v>64</v>
+      </c>
+      <c r="B243" s="31" t="s">
+        <v>85</v>
+      </c>
+      <c r="C243" s="30">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="244">
+      <c r="A244" s="29" t="s">
+        <v>65</v>
+      </c>
+      <c r="B244" s="31" t="s">
+        <v>85</v>
+      </c>
+      <c r="C244" s="30">
+        <v>31.4</v>
+      </c>
+    </row>
+    <row r="245">
+      <c r="A245" s="29" t="s">
+        <v>66</v>
+      </c>
+      <c r="B245" s="31" t="s">
+        <v>85</v>
+      </c>
+      <c r="C245" s="30">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="246">
+      <c r="A246" s="29" t="s">
+        <v>67</v>
+      </c>
+      <c r="B246" s="31" t="s">
+        <v>85</v>
+      </c>
+      <c r="C246" s="30">
+        <v>53.8</v>
+      </c>
+    </row>
+    <row r="247">
+      <c r="A247" s="29" t="s">
+        <v>68</v>
+      </c>
+      <c r="B247" s="31" t="s">
+        <v>85</v>
+      </c>
+      <c r="C247" s="30">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="248">
+      <c r="A248" s="29" t="s">
+        <v>69</v>
+      </c>
+      <c r="B248" s="31" t="s">
+        <v>85</v>
+      </c>
+      <c r="C248" s="30">
+        <v>43.4</v>
+      </c>
+    </row>
+    <row r="249">
+      <c r="A249" s="29" t="s">
+        <v>70</v>
+      </c>
+      <c r="B249" s="31" t="s">
+        <v>85</v>
+      </c>
+      <c r="C249" s="30">
+        <v>8.3</v>
+      </c>
+    </row>
+    <row r="250">
+      <c r="A250" s="29" t="s">
+        <v>71</v>
+      </c>
+      <c r="B250" s="31" t="s">
+        <v>85</v>
+      </c>
+      <c r="C250" s="30">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="251">
+      <c r="A251" s="29" t="s">
+        <v>72</v>
+      </c>
+      <c r="B251" s="31" t="s">
+        <v>85</v>
+      </c>
+      <c r="C251" s="30">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="252">
+      <c r="A252" s="29" t="s">
+        <v>73</v>
+      </c>
+      <c r="B252" s="31" t="s">
+        <v>85</v>
+      </c>
+      <c r="C252" s="30">
+        <v>30.3</v>
+      </c>
+    </row>
+    <row r="253">
+      <c r="A253" s="29" t="s">
+        <v>74</v>
+      </c>
+      <c r="B253" s="31" t="s">
+        <v>85</v>
+      </c>
+      <c r="C253" s="30">
+        <v>7.8</v>
+      </c>
+    </row>
+    <row r="254">
+      <c r="A254" s="29" t="s">
+        <v>75</v>
+      </c>
+      <c r="B254" s="31" t="s">
+        <v>85</v>
+      </c>
+      <c r="C254" s="30">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="255">
+      <c r="A255" s="29" t="s">
+        <v>76</v>
+      </c>
+      <c r="B255" s="31" t="s">
+        <v>85</v>
+      </c>
+      <c r="C255" s="30">
+        <v>15.2</v>
+      </c>
+    </row>
+    <row r="256">
+      <c r="A256" s="29" t="s">
+        <v>77</v>
+      </c>
+      <c r="B256" s="31" t="s">
+        <v>85</v>
+      </c>
+      <c r="C256" s="30">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="257">
+      <c r="A257" s="29" t="s">
+        <v>27</v>
+      </c>
+      <c r="B257" s="31" t="s">
+        <v>86</v>
+      </c>
+      <c r="C257" s="30">
+        <v>18.8</v>
+      </c>
+    </row>
+    <row r="258">
+      <c r="A258" s="29" t="s">
+        <v>28</v>
+      </c>
+      <c r="B258" s="31" t="s">
+        <v>86</v>
+      </c>
+      <c r="C258" s="30">
+        <v>13.7</v>
+      </c>
+    </row>
+    <row r="259">
+      <c r="A259" s="29" t="s">
+        <v>29</v>
+      </c>
+      <c r="B259" s="31" t="s">
+        <v>86</v>
+      </c>
+      <c r="C259" s="30">
+        <v>13.2</v>
+      </c>
+    </row>
+    <row r="260">
+      <c r="A260" s="29" t="s">
+        <v>30</v>
+      </c>
+      <c r="B260" s="31" t="s">
+        <v>86</v>
+      </c>
+      <c r="C260" s="30">
+        <v>35.6</v>
+      </c>
+    </row>
+    <row r="261">
+      <c r="A261" s="29" t="s">
+        <v>31</v>
+      </c>
+      <c r="B261" s="31" t="s">
+        <v>86</v>
+      </c>
+      <c r="C261" s="30">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="262">
+      <c r="A262" s="29" t="s">
+        <v>32</v>
+      </c>
+      <c r="B262" s="31" t="s">
+        <v>86</v>
+      </c>
+      <c r="C262" s="30">
+        <v>41.6</v>
+      </c>
+    </row>
+    <row r="263">
+      <c r="A263" s="29" t="s">
+        <v>33</v>
+      </c>
+      <c r="B263" s="31" t="s">
+        <v>86</v>
+      </c>
+      <c r="C263" s="30">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="264">
+      <c r="A264" s="29" t="s">
+        <v>34</v>
+      </c>
+      <c r="B264" s="31" t="s">
+        <v>86</v>
+      </c>
+      <c r="C264" s="30">
+        <v>6.8</v>
+      </c>
+    </row>
+    <row r="265">
+      <c r="A265" s="29" t="s">
+        <v>35</v>
+      </c>
+      <c r="B265" s="31" t="s">
+        <v>86</v>
+      </c>
+      <c r="C265" s="30">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="266">
+      <c r="A266" s="29" t="s">
+        <v>36</v>
+      </c>
+      <c r="B266" s="31" t="s">
+        <v>86</v>
+      </c>
+      <c r="C266" s="30">
+        <v>7.5</v>
+      </c>
+    </row>
+    <row r="267">
+      <c r="A267" s="29" t="s">
+        <v>37</v>
+      </c>
+      <c r="B267" s="31" t="s">
+        <v>86</v>
+      </c>
+      <c r="C267" s="30">
+        <v>15.1</v>
+      </c>
+    </row>
+    <row r="268">
+      <c r="A268" s="29" t="s">
+        <v>38</v>
+      </c>
+      <c r="B268" s="31" t="s">
+        <v>86</v>
+      </c>
+      <c r="C268" s="30">
+        <v>11.8</v>
+      </c>
+    </row>
+    <row r="269">
+      <c r="A269" s="29" t="s">
+        <v>39</v>
+      </c>
+      <c r="B269" s="31" t="s">
+        <v>86</v>
+      </c>
+      <c r="C269" s="30">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="270">
+      <c r="A270" s="32" t="s">
+        <v>40</v>
+      </c>
+      <c r="B270" s="31" t="s">
+        <v>86</v>
+      </c>
+      <c r="C270" s="33">
+        <v>23.9</v>
+      </c>
+    </row>
+    <row r="271">
+      <c r="A271" s="29" t="s">
+        <v>41</v>
+      </c>
+      <c r="B271" s="31" t="s">
+        <v>86</v>
+      </c>
+      <c r="C271" s="30">
+        <v>57.7</v>
+      </c>
+    </row>
+    <row r="272">
+      <c r="A272" s="29" t="s">
+        <v>42</v>
+      </c>
+      <c r="B272" s="31" t="s">
+        <v>86</v>
+      </c>
+      <c r="C272" s="30">
+        <v>33.5</v>
+      </c>
+    </row>
+    <row r="273">
+      <c r="A273" s="29" t="s">
+        <v>43</v>
+      </c>
+      <c r="B273" s="31" t="s">
+        <v>86</v>
+      </c>
+      <c r="C273" s="30">
+        <v>34.2</v>
+      </c>
+    </row>
+    <row r="274">
+      <c r="A274" s="29" t="s">
+        <v>44</v>
+      </c>
+      <c r="B274" s="31" t="s">
+        <v>86</v>
+      </c>
+      <c r="C274" s="30">
+        <v>70.7</v>
+      </c>
+    </row>
+    <row r="275">
+      <c r="A275" s="29" t="s">
+        <v>45</v>
+      </c>
+      <c r="B275" s="31" t="s">
+        <v>86</v>
+      </c>
+      <c r="C275" s="30">
+        <v>8.0</v>
+      </c>
+    </row>
+    <row r="276">
+      <c r="A276" s="29" t="s">
+        <v>46</v>
+      </c>
+      <c r="B276" s="31" t="s">
+        <v>86</v>
+      </c>
+      <c r="C276" s="30">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="277">
+      <c r="A277" s="29" t="s">
+        <v>47</v>
+      </c>
+      <c r="B277" s="31" t="s">
+        <v>86</v>
+      </c>
+      <c r="C277" s="30">
+        <v>14.7</v>
+      </c>
+    </row>
+    <row r="278">
+      <c r="A278" s="29" t="s">
+        <v>48</v>
+      </c>
+      <c r="B278" s="31" t="s">
+        <v>86</v>
+      </c>
+      <c r="C278" s="30">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="279">
+      <c r="A279" s="29" t="s">
+        <v>49</v>
+      </c>
+      <c r="B279" s="31" t="s">
+        <v>86</v>
+      </c>
+      <c r="C279" s="30">
+        <v>31.9</v>
+      </c>
+    </row>
+    <row r="280">
+      <c r="A280" s="29" t="s">
+        <v>50</v>
+      </c>
+      <c r="B280" s="31" t="s">
+        <v>86</v>
+      </c>
+      <c r="C280" s="30">
+        <v>26.5</v>
+      </c>
+    </row>
+    <row r="281">
+      <c r="A281" s="29" t="s">
+        <v>51</v>
+      </c>
+      <c r="B281" s="31" t="s">
+        <v>86</v>
+      </c>
+      <c r="C281" s="30">
+        <v>8.0</v>
+      </c>
+    </row>
+    <row r="282">
+      <c r="A282" s="29" t="s">
+        <v>52</v>
+      </c>
+      <c r="B282" s="31" t="s">
+        <v>86</v>
+      </c>
+      <c r="C282" s="30">
+        <v>74.4</v>
+      </c>
+    </row>
+    <row r="283">
+      <c r="A283" s="29" t="s">
+        <v>53</v>
+      </c>
+      <c r="B283" s="31" t="s">
+        <v>86</v>
+      </c>
+      <c r="C283" s="30">
+        <v>43.2</v>
+      </c>
+    </row>
+    <row r="284">
+      <c r="A284" s="29" t="s">
+        <v>54</v>
+      </c>
+      <c r="B284" s="31" t="s">
+        <v>86</v>
+      </c>
+      <c r="C284" s="30">
+        <v>49.2</v>
+      </c>
+    </row>
+    <row r="285">
+      <c r="A285" s="29" t="s">
+        <v>55</v>
+      </c>
+      <c r="B285" s="31" t="s">
+        <v>86</v>
+      </c>
+      <c r="C285" s="30">
+        <v>6.6</v>
+      </c>
+    </row>
+    <row r="286">
+      <c r="A286" s="29" t="s">
+        <v>56</v>
+      </c>
+      <c r="B286" s="31" t="s">
+        <v>86</v>
+      </c>
+      <c r="C286" s="30">
+        <v>1.6</v>
+      </c>
+    </row>
+    <row r="287">
+      <c r="A287" s="29" t="s">
+        <v>57</v>
+      </c>
+      <c r="B287" s="31" t="s">
+        <v>86</v>
+      </c>
+      <c r="C287" s="30">
+        <v>1.7</v>
+      </c>
+    </row>
+    <row r="288">
+      <c r="A288" s="29" t="s">
+        <v>58</v>
+      </c>
+      <c r="B288" s="31" t="s">
+        <v>86</v>
+      </c>
+      <c r="C288" s="30">
+        <v>35.5</v>
+      </c>
+    </row>
+    <row r="289">
+      <c r="A289" s="29" t="s">
+        <v>59</v>
+      </c>
+      <c r="B289" s="31" t="s">
+        <v>86</v>
+      </c>
+      <c r="C289" s="30">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="290">
+      <c r="A290" s="29" t="s">
+        <v>60</v>
+      </c>
+      <c r="B290" s="31" t="s">
+        <v>86</v>
+      </c>
+      <c r="C290" s="30">
+        <v>15.5</v>
+      </c>
+    </row>
+    <row r="291">
+      <c r="A291" s="29" t="s">
+        <v>61</v>
+      </c>
+      <c r="B291" s="31" t="s">
+        <v>86</v>
+      </c>
+      <c r="C291" s="30">
+        <v>57.1</v>
+      </c>
+    </row>
+    <row r="292">
+      <c r="A292" s="29" t="s">
+        <v>62</v>
+      </c>
+      <c r="B292" s="31" t="s">
+        <v>86</v>
+      </c>
+      <c r="C292" s="30">
+        <v>37.1</v>
+      </c>
+    </row>
+    <row r="293">
+      <c r="A293" s="29" t="s">
+        <v>63</v>
+      </c>
+      <c r="B293" s="31" t="s">
+        <v>86</v>
+      </c>
+      <c r="C293" s="30">
+        <v>14.0</v>
+      </c>
+    </row>
+    <row r="294">
+      <c r="A294" s="29" t="s">
+        <v>64</v>
+      </c>
+      <c r="B294" s="31" t="s">
+        <v>86</v>
+      </c>
+      <c r="C294" s="30">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="295">
+      <c r="A295" s="29" t="s">
+        <v>65</v>
+      </c>
+      <c r="B295" s="31" t="s">
+        <v>86</v>
+      </c>
+      <c r="C295" s="30">
+        <v>12.1</v>
+      </c>
+    </row>
+    <row r="296">
+      <c r="A296" s="29" t="s">
+        <v>66</v>
+      </c>
+      <c r="B296" s="31" t="s">
+        <v>86</v>
+      </c>
+      <c r="C296" s="30">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="297">
+      <c r="A297" s="29" t="s">
+        <v>67</v>
+      </c>
+      <c r="B297" s="31" t="s">
+        <v>86</v>
+      </c>
+      <c r="C297" s="30">
+        <v>15.2</v>
+      </c>
+    </row>
+    <row r="298">
+      <c r="A298" s="29" t="s">
+        <v>68</v>
+      </c>
+      <c r="B298" s="31" t="s">
+        <v>86</v>
+      </c>
+      <c r="C298" s="30">
+        <v>9.2</v>
+      </c>
+    </row>
+    <row r="299">
+      <c r="A299" s="29" t="s">
+        <v>69</v>
+      </c>
+      <c r="B299" s="31" t="s">
+        <v>86</v>
+      </c>
+      <c r="C299" s="30">
+        <v>22.4</v>
+      </c>
+    </row>
+    <row r="300">
+      <c r="A300" s="29" t="s">
+        <v>70</v>
+      </c>
+      <c r="B300" s="31" t="s">
+        <v>86</v>
+      </c>
+      <c r="C300" s="30">
+        <v>18.4</v>
+      </c>
+    </row>
+    <row r="301">
+      <c r="A301" s="29" t="s">
+        <v>71</v>
+      </c>
+      <c r="B301" s="31" t="s">
+        <v>86</v>
+      </c>
+      <c r="C301" s="30">
+        <v>61.8</v>
+      </c>
+    </row>
+    <row r="302">
+      <c r="A302" s="29" t="s">
+        <v>72</v>
+      </c>
+      <c r="B302" s="31" t="s">
+        <v>86</v>
+      </c>
+      <c r="C302" s="30">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="303">
+      <c r="A303" s="29" t="s">
+        <v>73</v>
+      </c>
+      <c r="B303" s="31" t="s">
+        <v>86</v>
+      </c>
+      <c r="C303" s="30">
+        <v>3.3</v>
+      </c>
+    </row>
+    <row r="304">
+      <c r="A304" s="29" t="s">
+        <v>74</v>
+      </c>
+      <c r="B304" s="31" t="s">
+        <v>86</v>
+      </c>
+      <c r="C304" s="30">
+        <v>2.9</v>
+      </c>
+    </row>
+    <row r="305">
+      <c r="A305" s="29" t="s">
+        <v>75</v>
+      </c>
+      <c r="B305" s="31" t="s">
+        <v>86</v>
+      </c>
+      <c r="C305" s="30">
+        <v>90.8</v>
+      </c>
+    </row>
+    <row r="306">
+      <c r="A306" s="29" t="s">
+        <v>76</v>
+      </c>
+      <c r="B306" s="31" t="s">
+        <v>86</v>
+      </c>
+      <c r="C306" s="30">
+        <v>41.9</v>
+      </c>
+    </row>
+    <row r="307">
+      <c r="A307" s="29" t="s">
+        <v>77</v>
+      </c>
+      <c r="B307" s="31" t="s">
+        <v>86</v>
+      </c>
+      <c r="C307" s="30">
+        <v>73.3</v>
+      </c>
+    </row>
+    <row r="308">
+      <c r="A308" s="29" t="s">
+        <v>27</v>
+      </c>
+      <c r="B308" s="31" t="s">
+        <v>87</v>
+      </c>
+      <c r="C308" s="30">
+        <v>37.6</v>
+      </c>
+    </row>
+    <row r="309">
+      <c r="A309" s="29" t="s">
+        <v>28</v>
+      </c>
+      <c r="B309" s="31" t="s">
+        <v>87</v>
+      </c>
+      <c r="C309" s="30">
+        <v>41.0</v>
+      </c>
+    </row>
+    <row r="310">
+      <c r="A310" s="29" t="s">
+        <v>29</v>
+      </c>
+      <c r="B310" s="31" t="s">
+        <v>87</v>
+      </c>
+      <c r="C310" s="30">
+        <v>44.4</v>
+      </c>
+    </row>
+    <row r="311">
+      <c r="A311" s="29" t="s">
+        <v>30</v>
+      </c>
+      <c r="B311" s="31" t="s">
+        <v>87</v>
+      </c>
+      <c r="C311" s="30">
+        <v>32.1</v>
+      </c>
+    </row>
+    <row r="312">
+      <c r="A312" s="29" t="s">
+        <v>31</v>
+      </c>
+      <c r="B312" s="31" t="s">
+        <v>87</v>
+      </c>
+      <c r="C312" s="30">
+        <v>49.0</v>
+      </c>
+    </row>
+    <row r="313">
+      <c r="A313" s="29" t="s">
+        <v>32</v>
+      </c>
+      <c r="B313" s="31" t="s">
+        <v>87</v>
+      </c>
+      <c r="C313" s="30">
+        <v>25.5</v>
+      </c>
+    </row>
+    <row r="314">
+      <c r="A314" s="29" t="s">
+        <v>33</v>
+      </c>
+      <c r="B314" s="31" t="s">
+        <v>87</v>
+      </c>
+      <c r="C314" s="30">
+        <v>55.6</v>
+      </c>
+    </row>
+    <row r="315">
+      <c r="A315" s="29" t="s">
+        <v>34</v>
+      </c>
+      <c r="B315" s="31" t="s">
+        <v>87</v>
+      </c>
+      <c r="C315" s="30">
+        <v>85.8</v>
+      </c>
+    </row>
+    <row r="316">
+      <c r="A316" s="29" t="s">
+        <v>35</v>
+      </c>
+      <c r="B316" s="31" t="s">
+        <v>87</v>
+      </c>
+      <c r="C316" s="30">
+        <v>62.5</v>
+      </c>
+    </row>
+    <row r="317">
+      <c r="A317" s="29" t="s">
+        <v>36</v>
+      </c>
+      <c r="B317" s="31" t="s">
+        <v>87</v>
+      </c>
+      <c r="C317" s="30">
+        <v>73.9</v>
+      </c>
+    </row>
+    <row r="318">
+      <c r="A318" s="29" t="s">
+        <v>37</v>
+      </c>
+      <c r="B318" s="31" t="s">
+        <v>87</v>
+      </c>
+      <c r="C318" s="30">
+        <v>46.3</v>
+      </c>
+    </row>
+    <row r="319">
+      <c r="A319" s="29" t="s">
+        <v>38</v>
+      </c>
+      <c r="B319" s="31" t="s">
+        <v>87</v>
+      </c>
+      <c r="C319" s="30">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="320">
+      <c r="A320" s="29" t="s">
+        <v>39</v>
+      </c>
+      <c r="B320" s="31" t="s">
+        <v>87</v>
+      </c>
+      <c r="C320" s="30">
+        <v>26.0</v>
+      </c>
+    </row>
+    <row r="321">
+      <c r="A321" s="32" t="s">
+        <v>40</v>
+      </c>
+      <c r="B321" s="31" t="s">
+        <v>87</v>
+      </c>
+      <c r="C321" s="33">
+        <v>11.6</v>
+      </c>
+    </row>
+    <row r="322">
+      <c r="A322" s="29" t="s">
+        <v>41</v>
+      </c>
+      <c r="B322" s="31" t="s">
+        <v>87</v>
+      </c>
+      <c r="C322" s="30">
+        <v>29.5</v>
+      </c>
+    </row>
+    <row r="323">
+      <c r="A323" s="29" t="s">
+        <v>42</v>
+      </c>
+      <c r="B323" s="31" t="s">
+        <v>87</v>
+      </c>
+      <c r="C323" s="30">
+        <v>9.0</v>
+      </c>
+    </row>
+    <row r="324">
+      <c r="A324" s="29" t="s">
+        <v>43</v>
+      </c>
+      <c r="B324" s="31" t="s">
+        <v>87</v>
+      </c>
+      <c r="C324" s="30">
+        <v>5.1</v>
+      </c>
+    </row>
+    <row r="325">
+      <c r="A325" s="29" t="s">
+        <v>44</v>
+      </c>
+      <c r="B325" s="31" t="s">
+        <v>87</v>
+      </c>
+      <c r="C325" s="30">
+        <v>21.0</v>
+      </c>
+    </row>
+    <row r="326">
+      <c r="A326" s="29" t="s">
+        <v>45</v>
+      </c>
+      <c r="B326" s="31" t="s">
+        <v>87</v>
+      </c>
+      <c r="C326" s="30">
+        <v>64.8</v>
+      </c>
+    </row>
+    <row r="327">
+      <c r="A327" s="29" t="s">
+        <v>46</v>
+      </c>
+      <c r="B327" s="31" t="s">
+        <v>87</v>
+      </c>
+      <c r="C327" s="30">
+        <v>24.7</v>
+      </c>
+    </row>
+    <row r="328">
+      <c r="A328" s="29" t="s">
+        <v>47</v>
+      </c>
+      <c r="B328" s="31" t="s">
+        <v>87</v>
+      </c>
+      <c r="C328" s="30">
+        <v>37.1</v>
+      </c>
+    </row>
+    <row r="329">
+      <c r="A329" s="29" t="s">
+        <v>48</v>
+      </c>
+      <c r="B329" s="31" t="s">
+        <v>87</v>
+      </c>
+      <c r="C329" s="30">
+        <v>76.9</v>
+      </c>
+    </row>
+    <row r="330">
+      <c r="A330" s="29" t="s">
+        <v>49</v>
+      </c>
+      <c r="B330" s="31" t="s">
+        <v>87</v>
+      </c>
+      <c r="C330" s="30">
+        <v>26.6</v>
+      </c>
+    </row>
+    <row r="331">
+      <c r="A331" s="29" t="s">
+        <v>50</v>
+      </c>
+      <c r="B331" s="31" t="s">
+        <v>87</v>
+      </c>
+      <c r="C331" s="30">
+        <v>20.6</v>
+      </c>
+    </row>
+    <row r="332">
+      <c r="A332" s="29" t="s">
+        <v>51</v>
+      </c>
+      <c r="B332" s="31" t="s">
+        <v>87</v>
+      </c>
+      <c r="C332" s="30">
+        <v>72.1</v>
+      </c>
+    </row>
+    <row r="333">
+      <c r="A333" s="29" t="s">
+        <v>52</v>
+      </c>
+      <c r="B333" s="31" t="s">
+        <v>87</v>
+      </c>
+      <c r="C333" s="30">
+        <v>8.7</v>
+      </c>
+    </row>
+    <row r="334">
+      <c r="A334" s="29" t="s">
+        <v>53</v>
+      </c>
+      <c r="B334" s="31" t="s">
+        <v>87</v>
+      </c>
+      <c r="C334" s="30">
+        <v>2.0</v>
+      </c>
+    </row>
+    <row r="335">
+      <c r="A335" s="29" t="s">
+        <v>54</v>
+      </c>
+      <c r="B335" s="31" t="s">
+        <v>87</v>
+      </c>
+      <c r="C335" s="30">
+        <v>4.1</v>
+      </c>
+    </row>
+    <row r="336">
+      <c r="A336" s="29" t="s">
+        <v>55</v>
+      </c>
+      <c r="B336" s="31" t="s">
+        <v>87</v>
+      </c>
+      <c r="C336" s="30">
+        <v>62.5</v>
+      </c>
+    </row>
+    <row r="337">
+      <c r="A337" s="29" t="s">
+        <v>56</v>
+      </c>
+      <c r="B337" s="31" t="s">
+        <v>87</v>
+      </c>
+      <c r="C337" s="30">
+        <v>25.6</v>
+      </c>
+    </row>
+    <row r="338">
+      <c r="A338" s="29" t="s">
+        <v>57</v>
+      </c>
+      <c r="B338" s="31" t="s">
+        <v>87</v>
+      </c>
+      <c r="C338" s="30">
+        <v>47.8</v>
+      </c>
+    </row>
+    <row r="339">
+      <c r="A339" s="29" t="s">
+        <v>58</v>
+      </c>
+      <c r="B339" s="31" t="s">
+        <v>87</v>
+      </c>
+      <c r="C339" s="30">
+        <v>28.4</v>
+      </c>
+    </row>
+    <row r="340">
+      <c r="A340" s="29" t="s">
+        <v>59</v>
+      </c>
+      <c r="B340" s="31" t="s">
+        <v>87</v>
+      </c>
+      <c r="C340" s="30">
+        <v>45.6</v>
+      </c>
+    </row>
+    <row r="341">
+      <c r="A341" s="29" t="s">
+        <v>60</v>
+      </c>
+      <c r="B341" s="31" t="s">
+        <v>87</v>
+      </c>
+      <c r="C341" s="30">
+        <v>35.9</v>
+      </c>
+    </row>
+    <row r="342">
+      <c r="A342" s="29" t="s">
+        <v>61</v>
+      </c>
+      <c r="B342" s="31" t="s">
+        <v>87</v>
+      </c>
+      <c r="C342" s="30">
+        <v>3.4</v>
+      </c>
+    </row>
+    <row r="343">
+      <c r="A343" s="29" t="s">
+        <v>62</v>
+      </c>
+      <c r="B343" s="31" t="s">
+        <v>87</v>
+      </c>
+      <c r="C343" s="30">
+        <v>43.9</v>
+      </c>
+    </row>
+    <row r="344">
+      <c r="A344" s="29" t="s">
+        <v>63</v>
+      </c>
+      <c r="B344" s="31" t="s">
+        <v>87</v>
+      </c>
+      <c r="C344" s="30">
+        <v>40.8</v>
+      </c>
+    </row>
+    <row r="345">
+      <c r="A345" s="29" t="s">
+        <v>64</v>
+      </c>
+      <c r="B345" s="31" t="s">
+        <v>87</v>
+      </c>
+      <c r="C345" s="30">
+        <v>33.3</v>
+      </c>
+    </row>
+    <row r="346">
+      <c r="A346" s="29" t="s">
+        <v>65</v>
+      </c>
+      <c r="B346" s="31" t="s">
+        <v>87</v>
+      </c>
+      <c r="C346" s="30">
+        <v>52.7</v>
+      </c>
+    </row>
+    <row r="347">
+      <c r="A347" s="29" t="s">
+        <v>66</v>
+      </c>
+      <c r="B347" s="31" t="s">
+        <v>87</v>
+      </c>
+      <c r="C347" s="30">
+        <v>90.9</v>
+      </c>
+    </row>
+    <row r="348">
+      <c r="A348" s="29" t="s">
+        <v>67</v>
+      </c>
+      <c r="B348" s="31" t="s">
+        <v>87</v>
+      </c>
+      <c r="C348" s="30">
+        <v>23.3</v>
+      </c>
+    </row>
+    <row r="349">
+      <c r="A349" s="29" t="s">
+        <v>68</v>
+      </c>
+      <c r="B349" s="31" t="s">
+        <v>87</v>
+      </c>
+      <c r="C349" s="30">
+        <v>8.7</v>
+      </c>
+    </row>
+    <row r="350">
+      <c r="A350" s="29" t="s">
+        <v>69</v>
+      </c>
+      <c r="B350" s="31" t="s">
+        <v>87</v>
+      </c>
+      <c r="C350" s="30">
+        <v>17.8</v>
+      </c>
+    </row>
+    <row r="351">
+      <c r="A351" s="29" t="s">
+        <v>70</v>
+      </c>
+      <c r="B351" s="31" t="s">
+        <v>87</v>
+      </c>
+      <c r="C351" s="30">
+        <v>48.6</v>
+      </c>
+    </row>
+    <row r="352">
+      <c r="A352" s="29" t="s">
+        <v>71</v>
+      </c>
+      <c r="B352" s="31" t="s">
+        <v>87</v>
+      </c>
+      <c r="C352" s="30">
+        <v>24.7</v>
+      </c>
+    </row>
+    <row r="353">
+      <c r="A353" s="29" t="s">
+        <v>72</v>
+      </c>
+      <c r="B353" s="31" t="s">
+        <v>87</v>
+      </c>
+      <c r="C353" s="30">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="354">
+      <c r="A354" s="29" t="s">
+        <v>73</v>
+      </c>
+      <c r="B354" s="31" t="s">
+        <v>87</v>
+      </c>
+      <c r="C354" s="30">
+        <v>57.4</v>
+      </c>
+    </row>
+    <row r="355">
+      <c r="A355" s="29" t="s">
+        <v>74</v>
+      </c>
+      <c r="B355" s="31" t="s">
+        <v>87</v>
+      </c>
+      <c r="C355" s="30">
+        <v>14.4</v>
+      </c>
+    </row>
+    <row r="356">
+      <c r="A356" s="29" t="s">
+        <v>75</v>
+      </c>
+      <c r="B356" s="31" t="s">
+        <v>87</v>
+      </c>
+      <c r="C356" s="30">
+        <v>4.1</v>
+      </c>
+    </row>
+    <row r="357">
+      <c r="A357" s="29" t="s">
+        <v>76</v>
+      </c>
+      <c r="B357" s="31" t="s">
+        <v>87</v>
+      </c>
+      <c r="C357" s="30">
+        <v>33.9</v>
+      </c>
+    </row>
+    <row r="358">
+      <c r="A358" s="29" t="s">
+        <v>77</v>
+      </c>
+      <c r="B358" s="31" t="s">
+        <v>87</v>
+      </c>
+      <c r="C358" s="30">
+        <v>3.5</v>
+      </c>
+    </row>
+    <row r="359">
+      <c r="A359" s="29" t="s">
+        <v>27</v>
+      </c>
+      <c r="B359" s="31" t="s">
+        <v>88</v>
+      </c>
+      <c r="C359" s="30">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="360">
+      <c r="A360" s="29" t="s">
+        <v>28</v>
+      </c>
+      <c r="B360" s="31" t="s">
+        <v>88</v>
+      </c>
+      <c r="C360" s="30">
+        <v>14.9</v>
+      </c>
+    </row>
+    <row r="361">
+      <c r="A361" s="29" t="s">
+        <v>29</v>
+      </c>
+      <c r="B361" s="31" t="s">
+        <v>88</v>
+      </c>
+      <c r="C361" s="30">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="362">
+      <c r="A362" s="29" t="s">
+        <v>30</v>
+      </c>
+      <c r="B362" s="31" t="s">
+        <v>88</v>
+      </c>
+      <c r="C362" s="30">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="363">
+      <c r="A363" s="29" t="s">
+        <v>31</v>
+      </c>
+      <c r="B363" s="31" t="s">
+        <v>88</v>
+      </c>
+      <c r="C363" s="30">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="364">
+      <c r="A364" s="29" t="s">
+        <v>32</v>
+      </c>
+      <c r="B364" s="31" t="s">
+        <v>88</v>
+      </c>
+      <c r="C364" s="30">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="365">
+      <c r="A365" s="29" t="s">
+        <v>33</v>
+      </c>
+      <c r="B365" s="31" t="s">
+        <v>88</v>
+      </c>
+      <c r="C365" s="30">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="366">
+      <c r="A366" s="29" t="s">
+        <v>34</v>
+      </c>
+      <c r="B366" s="31" t="s">
+        <v>88</v>
+      </c>
+      <c r="C366" s="30">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="367">
+      <c r="A367" s="29" t="s">
+        <v>35</v>
+      </c>
+      <c r="B367" s="31" t="s">
+        <v>88</v>
+      </c>
+      <c r="C367" s="30">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="368">
+      <c r="A368" s="29" t="s">
+        <v>36</v>
+      </c>
+      <c r="B368" s="31" t="s">
+        <v>88</v>
+      </c>
+      <c r="C368" s="30">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="369">
+      <c r="A369" s="29" t="s">
+        <v>37</v>
+      </c>
+      <c r="B369" s="31" t="s">
+        <v>88</v>
+      </c>
+      <c r="C369" s="30">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="370">
+      <c r="A370" s="29" t="s">
+        <v>38</v>
+      </c>
+      <c r="B370" s="31" t="s">
+        <v>88</v>
+      </c>
+      <c r="C370" s="30">
+        <v>65.4</v>
+      </c>
+    </row>
+    <row r="371">
+      <c r="A371" s="29" t="s">
+        <v>39</v>
+      </c>
+      <c r="B371" s="31" t="s">
+        <v>88</v>
+      </c>
+      <c r="C371" s="30">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="372">
+      <c r="A372" s="32" t="s">
+        <v>40</v>
+      </c>
+      <c r="B372" s="31" t="s">
+        <v>88</v>
+      </c>
+      <c r="C372" s="33">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="373">
+      <c r="A373" s="29" t="s">
+        <v>41</v>
+      </c>
+      <c r="B373" s="31" t="s">
+        <v>88</v>
+      </c>
+      <c r="C373" s="30">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="374">
+      <c r="A374" s="29" t="s">
+        <v>42</v>
+      </c>
+      <c r="B374" s="31" t="s">
+        <v>88</v>
+      </c>
+      <c r="C374" s="30">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="375">
+      <c r="A375" s="29" t="s">
+        <v>43</v>
+      </c>
+      <c r="B375" s="31" t="s">
+        <v>88</v>
+      </c>
+      <c r="C375" s="30">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="376">
+      <c r="A376" s="29" t="s">
+        <v>44</v>
+      </c>
+      <c r="B376" s="31" t="s">
+        <v>88</v>
+      </c>
+      <c r="C376" s="30">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="377">
+      <c r="A377" s="29" t="s">
+        <v>45</v>
+      </c>
+      <c r="B377" s="31" t="s">
+        <v>88</v>
+      </c>
+      <c r="C377" s="30">
+        <v>4.0</v>
+      </c>
+    </row>
+    <row r="378">
+      <c r="A378" s="29" t="s">
+        <v>46</v>
+      </c>
+      <c r="B378" s="31" t="s">
+        <v>88</v>
+      </c>
+      <c r="C378" s="30">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="379">
+      <c r="A379" s="29" t="s">
+        <v>47</v>
+      </c>
+      <c r="B379" s="31" t="s">
+        <v>88</v>
+      </c>
+      <c r="C379" s="30">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="380">
+      <c r="A380" s="29" t="s">
+        <v>48</v>
+      </c>
+      <c r="B380" s="31" t="s">
+        <v>88</v>
+      </c>
+      <c r="C380" s="30">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="381">
+      <c r="A381" s="29" t="s">
+        <v>49</v>
+      </c>
+      <c r="B381" s="31" t="s">
+        <v>88</v>
+      </c>
+      <c r="C381" s="30">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="382">
+      <c r="A382" s="29" t="s">
+        <v>50</v>
+      </c>
+      <c r="B382" s="31" t="s">
+        <v>88</v>
+      </c>
+      <c r="C382" s="30">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="383">
+      <c r="A383" s="29" t="s">
+        <v>51</v>
+      </c>
+      <c r="B383" s="31" t="s">
+        <v>88</v>
+      </c>
+      <c r="C383" s="30">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="384">
+      <c r="A384" s="29" t="s">
+        <v>52</v>
+      </c>
+      <c r="B384" s="31" t="s">
+        <v>88</v>
+      </c>
+      <c r="C384" s="30">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="385">
+      <c r="A385" s="29" t="s">
+        <v>53</v>
+      </c>
+      <c r="B385" s="31" t="s">
+        <v>88</v>
+      </c>
+      <c r="C385" s="30">
+        <v>1.8</v>
+      </c>
+    </row>
+    <row r="386">
+      <c r="A386" s="29" t="s">
+        <v>54</v>
+      </c>
+      <c r="B386" s="31" t="s">
+        <v>88</v>
+      </c>
+      <c r="C386" s="30">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="387">
+      <c r="A387" s="29" t="s">
+        <v>55</v>
+      </c>
+      <c r="B387" s="31" t="s">
+        <v>88</v>
+      </c>
+      <c r="C387" s="30">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="388">
+      <c r="A388" s="29" t="s">
+        <v>56</v>
+      </c>
+      <c r="B388" s="31" t="s">
+        <v>88</v>
+      </c>
+      <c r="C388" s="30">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="389">
+      <c r="A389" s="29" t="s">
+        <v>57</v>
+      </c>
+      <c r="B389" s="31" t="s">
+        <v>88</v>
+      </c>
+      <c r="C389" s="30">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="390">
+      <c r="A390" s="29" t="s">
+        <v>58</v>
+      </c>
+      <c r="B390" s="31" t="s">
+        <v>88</v>
+      </c>
+      <c r="C390" s="30">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="391">
+      <c r="A391" s="29" t="s">
+        <v>59</v>
+      </c>
+      <c r="B391" s="31" t="s">
+        <v>88</v>
+      </c>
+      <c r="C391" s="30">
+        <v>0.7</v>
+      </c>
+    </row>
+    <row r="392">
+      <c r="A392" s="29" t="s">
+        <v>60</v>
+      </c>
+      <c r="B392" s="31" t="s">
+        <v>88</v>
+      </c>
+      <c r="C392" s="30">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="393">
+      <c r="A393" s="29" t="s">
+        <v>61</v>
+      </c>
+      <c r="B393" s="31" t="s">
+        <v>88</v>
+      </c>
+      <c r="C393" s="30">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="394">
+      <c r="A394" s="29" t="s">
+        <v>62</v>
+      </c>
+      <c r="B394" s="31" t="s">
+        <v>88</v>
+      </c>
+      <c r="C394" s="30">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="395">
+      <c r="A395" s="29" t="s">
+        <v>63</v>
+      </c>
+      <c r="B395" s="31" t="s">
+        <v>88</v>
+      </c>
+      <c r="C395" s="30">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="396">
+      <c r="A396" s="29" t="s">
+        <v>64</v>
+      </c>
+      <c r="B396" s="31" t="s">
+        <v>88</v>
+      </c>
+      <c r="C396" s="30">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="397">
+      <c r="A397" s="29" t="s">
+        <v>65</v>
+      </c>
+      <c r="B397" s="31" t="s">
+        <v>88</v>
+      </c>
+      <c r="C397" s="30">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="398">
+      <c r="A398" s="29" t="s">
+        <v>66</v>
+      </c>
+      <c r="B398" s="31" t="s">
+        <v>88</v>
+      </c>
+      <c r="C398" s="30">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="399">
+      <c r="A399" s="29" t="s">
+        <v>67</v>
+      </c>
+      <c r="B399" s="31" t="s">
+        <v>88</v>
+      </c>
+      <c r="C399" s="30">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="400">
+      <c r="A400" s="29" t="s">
+        <v>68</v>
+      </c>
+      <c r="B400" s="31" t="s">
+        <v>88</v>
+      </c>
+      <c r="C400" s="30">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="401">
+      <c r="A401" s="29" t="s">
+        <v>69</v>
+      </c>
+      <c r="B401" s="31" t="s">
+        <v>88</v>
+      </c>
+      <c r="C401" s="30">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="402">
+      <c r="A402" s="29" t="s">
+        <v>70</v>
+      </c>
+      <c r="B402" s="31" t="s">
+        <v>88</v>
+      </c>
+      <c r="C402" s="30">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="403">
+      <c r="A403" s="29" t="s">
+        <v>71</v>
+      </c>
+      <c r="B403" s="31" t="s">
+        <v>88</v>
+      </c>
+      <c r="C403" s="30">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="404">
+      <c r="A404" s="29" t="s">
+        <v>72</v>
+      </c>
+      <c r="B404" s="31" t="s">
+        <v>88</v>
+      </c>
+      <c r="C404" s="30">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="405">
+      <c r="A405" s="29" t="s">
+        <v>73</v>
+      </c>
+      <c r="B405" s="31" t="s">
+        <v>88</v>
+      </c>
+      <c r="C405" s="30">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="406">
+      <c r="A406" s="29" t="s">
+        <v>74</v>
+      </c>
+      <c r="B406" s="31" t="s">
+        <v>88</v>
+      </c>
+      <c r="C406" s="30">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="407">
+      <c r="A407" s="29" t="s">
+        <v>75</v>
+      </c>
+      <c r="B407" s="31" t="s">
+        <v>88</v>
+      </c>
+      <c r="C407" s="30">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="408">
+      <c r="A408" s="29" t="s">
+        <v>76</v>
+      </c>
+      <c r="B408" s="31" t="s">
+        <v>88</v>
+      </c>
+      <c r="C408" s="30">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="409">
+      <c r="A409" s="29" t="s">
+        <v>77</v>
+      </c>
+      <c r="B409" s="31" t="s">
+        <v>88</v>
+      </c>
+      <c r="C409" s="30">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="410">
+      <c r="A410" s="29" t="s">
+        <v>27</v>
+      </c>
+      <c r="B410" s="31" t="s">
+        <v>89</v>
+      </c>
+      <c r="C410" s="30">
+        <v>2.2</v>
+      </c>
+    </row>
+    <row r="411">
+      <c r="A411" s="29" t="s">
+        <v>28</v>
+      </c>
+      <c r="B411" s="31" t="s">
+        <v>89</v>
+      </c>
+      <c r="C411" s="30">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="412">
+      <c r="A412" s="29" t="s">
+        <v>29</v>
+      </c>
+      <c r="B412" s="31" t="s">
+        <v>89</v>
+      </c>
+      <c r="C412" s="30">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="413">
+      <c r="A413" s="29" t="s">
+        <v>30</v>
+      </c>
+      <c r="B413" s="31" t="s">
+        <v>89</v>
+      </c>
+      <c r="C413" s="30">
+        <v>1.7</v>
+      </c>
+    </row>
+    <row r="414">
+      <c r="A414" s="29" t="s">
+        <v>31</v>
+      </c>
+      <c r="B414" s="31" t="s">
+        <v>89</v>
+      </c>
+      <c r="C414" s="30">
+        <v>4.0</v>
+      </c>
+    </row>
+    <row r="415">
+      <c r="A415" s="29" t="s">
+        <v>32</v>
+      </c>
+      <c r="B415" s="31" t="s">
+        <v>89</v>
+      </c>
+      <c r="C415" s="30">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="416">
+      <c r="A416" s="29" t="s">
+        <v>33</v>
+      </c>
+      <c r="B416" s="31" t="s">
+        <v>89</v>
+      </c>
+      <c r="C416" s="30">
+        <v>3.2</v>
+      </c>
+    </row>
+    <row r="417">
+      <c r="A417" s="29" t="s">
+        <v>34</v>
+      </c>
+      <c r="B417" s="31" t="s">
+        <v>89</v>
+      </c>
+      <c r="C417" s="30">
+        <v>5.3</v>
+      </c>
+    </row>
+    <row r="418">
+      <c r="A418" s="29" t="s">
+        <v>35</v>
+      </c>
+      <c r="B418" s="31" t="s">
+        <v>89</v>
+      </c>
+      <c r="C418" s="30">
+        <v>25.5</v>
+      </c>
+    </row>
+    <row r="419">
+      <c r="A419" s="29" t="s">
+        <v>36</v>
+      </c>
+      <c r="B419" s="31" t="s">
+        <v>89</v>
+      </c>
+      <c r="C419" s="30">
+        <v>2.8</v>
+      </c>
+    </row>
+    <row r="420">
+      <c r="A420" s="29" t="s">
+        <v>37</v>
+      </c>
+      <c r="B420" s="31" t="s">
+        <v>89</v>
+      </c>
+      <c r="C420" s="30">
+        <v>4.6</v>
+      </c>
+    </row>
+    <row r="421">
+      <c r="A421" s="29" t="s">
+        <v>38</v>
+      </c>
+      <c r="B421" s="31" t="s">
+        <v>89</v>
+      </c>
+      <c r="C421" s="30">
+        <v>6.8</v>
+      </c>
+    </row>
+    <row r="422">
+      <c r="A422" s="29" t="s">
+        <v>39</v>
+      </c>
+      <c r="B422" s="31" t="s">
+        <v>89</v>
+      </c>
+      <c r="C422" s="30">
+        <v>3.3</v>
+      </c>
+    </row>
+    <row r="423">
+      <c r="A423" s="32" t="s">
+        <v>40</v>
+      </c>
+      <c r="B423" s="31" t="s">
+        <v>89</v>
+      </c>
+      <c r="C423" s="33">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="424">
+      <c r="A424" s="29" t="s">
+        <v>41</v>
+      </c>
+      <c r="B424" s="31" t="s">
+        <v>89</v>
+      </c>
+      <c r="C424" s="30">
+        <v>3.3</v>
+      </c>
+    </row>
+    <row r="425">
+      <c r="A425" s="29" t="s">
+        <v>42</v>
+      </c>
+      <c r="B425" s="31" t="s">
+        <v>89</v>
+      </c>
+      <c r="C425" s="30">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="426">
+      <c r="A426" s="29" t="s">
+        <v>43</v>
+      </c>
+      <c r="B426" s="31" t="s">
+        <v>89</v>
+      </c>
+      <c r="C426" s="30">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="427">
+      <c r="A427" s="29" t="s">
+        <v>44</v>
+      </c>
+      <c r="B427" s="31" t="s">
+        <v>89</v>
+      </c>
+      <c r="C427" s="30">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="428">
+      <c r="A428" s="29" t="s">
+        <v>45</v>
+      </c>
+      <c r="B428" s="31" t="s">
+        <v>89</v>
+      </c>
+      <c r="C428" s="30">
+        <v>4.2</v>
+      </c>
+    </row>
+    <row r="429">
+      <c r="A429" s="29" t="s">
+        <v>46</v>
+      </c>
+      <c r="B429" s="31" t="s">
+        <v>89</v>
+      </c>
+      <c r="C429" s="30">
+        <v>22.3</v>
+      </c>
+    </row>
+    <row r="430">
+      <c r="A430" s="29" t="s">
+        <v>47</v>
+      </c>
+      <c r="B430" s="31" t="s">
+        <v>89</v>
+      </c>
+      <c r="C430" s="30">
+        <v>1.9</v>
+      </c>
+    </row>
+    <row r="431">
+      <c r="A431" s="29" t="s">
+        <v>48</v>
+      </c>
+      <c r="B431" s="31" t="s">
+        <v>89</v>
+      </c>
+      <c r="C431" s="30">
+        <v>10.3</v>
+      </c>
+    </row>
+    <row r="432">
+      <c r="A432" s="29" t="s">
+        <v>49</v>
+      </c>
+      <c r="B432" s="31" t="s">
+        <v>89</v>
+      </c>
+      <c r="C432" s="30">
+        <v>3.1</v>
+      </c>
+    </row>
+    <row r="433">
+      <c r="A433" s="29" t="s">
+        <v>50</v>
+      </c>
+      <c r="B433" s="31" t="s">
+        <v>89</v>
+      </c>
+      <c r="C433" s="30">
+        <v>2.7</v>
+      </c>
+    </row>
+    <row r="434">
+      <c r="A434" s="29" t="s">
+        <v>51</v>
+      </c>
+      <c r="B434" s="31" t="s">
+        <v>89</v>
+      </c>
+      <c r="C434" s="30">
+        <v>2.1</v>
+      </c>
+    </row>
+    <row r="435">
+      <c r="A435" s="29" t="s">
+        <v>52</v>
+      </c>
+      <c r="B435" s="31" t="s">
+        <v>89</v>
+      </c>
+      <c r="C435" s="30">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="436">
+      <c r="A436" s="29" t="s">
+        <v>53</v>
+      </c>
+      <c r="B436" s="31" t="s">
+        <v>89</v>
+      </c>
+      <c r="C436" s="30">
+        <v>1.3</v>
+      </c>
+    </row>
+    <row r="437">
+      <c r="A437" s="29" t="s">
+        <v>54</v>
+      </c>
+      <c r="B437" s="31" t="s">
+        <v>89</v>
+      </c>
+      <c r="C437" s="30">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="438">
+      <c r="A438" s="29" t="s">
+        <v>55</v>
+      </c>
+      <c r="B438" s="31" t="s">
+        <v>89</v>
+      </c>
+      <c r="C438" s="30">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="439">
+      <c r="A439" s="29" t="s">
+        <v>56</v>
+      </c>
+      <c r="B439" s="31" t="s">
+        <v>89</v>
+      </c>
+      <c r="C439" s="30">
+        <v>6.2</v>
+      </c>
+    </row>
+    <row r="440">
+      <c r="A440" s="29" t="s">
+        <v>57</v>
+      </c>
+      <c r="B440" s="31" t="s">
+        <v>89</v>
+      </c>
+      <c r="C440" s="30">
+        <v>2.3</v>
+      </c>
+    </row>
+    <row r="441">
+      <c r="A441" s="29" t="s">
+        <v>58</v>
+      </c>
+      <c r="B441" s="31" t="s">
+        <v>89</v>
+      </c>
+      <c r="C441" s="30">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="442">
+      <c r="A442" s="29" t="s">
+        <v>59</v>
+      </c>
+      <c r="B442" s="31" t="s">
+        <v>89</v>
+      </c>
+      <c r="C442" s="30">
+        <v>2.3</v>
+      </c>
+    </row>
+    <row r="443">
+      <c r="A443" s="29" t="s">
+        <v>60</v>
+      </c>
+      <c r="B443" s="31" t="s">
+        <v>89</v>
+      </c>
+      <c r="C443" s="30">
+        <v>1.8</v>
+      </c>
+    </row>
+    <row r="444">
+      <c r="A444" s="29" t="s">
+        <v>61</v>
+      </c>
+      <c r="B444" s="31" t="s">
+        <v>89</v>
+      </c>
+      <c r="C444" s="30">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="445">
+      <c r="A445" s="29" t="s">
+        <v>62</v>
+      </c>
+      <c r="B445" s="31" t="s">
+        <v>89</v>
+      </c>
+      <c r="C445" s="30">
+        <v>1.1</v>
+      </c>
+    </row>
+    <row r="446">
+      <c r="A446" s="29" t="s">
+        <v>63</v>
+      </c>
+      <c r="B446" s="31" t="s">
+        <v>89</v>
+      </c>
+      <c r="C446" s="30">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="447">
+      <c r="A447" s="29" t="s">
+        <v>64</v>
+      </c>
+      <c r="B447" s="31" t="s">
+        <v>89</v>
+      </c>
+      <c r="C447" s="30">
+        <v>1.7</v>
+      </c>
+    </row>
+    <row r="448">
+      <c r="A448" s="29" t="s">
+        <v>65</v>
+      </c>
+      <c r="B448" s="31" t="s">
+        <v>89</v>
+      </c>
+      <c r="C448" s="30">
+        <v>1.4</v>
+      </c>
+    </row>
+    <row r="449">
+      <c r="A449" s="29" t="s">
+        <v>66</v>
+      </c>
+      <c r="B449" s="31" t="s">
+        <v>89</v>
+      </c>
+      <c r="C449" s="30">
+        <v>2.5</v>
+      </c>
+    </row>
+    <row r="450">
+      <c r="A450" s="29" t="s">
+        <v>67</v>
+      </c>
+      <c r="B450" s="31" t="s">
+        <v>89</v>
+      </c>
+      <c r="C450" s="30">
+        <v>2.4</v>
+      </c>
+    </row>
+    <row r="451">
+      <c r="A451" s="29" t="s">
+        <v>68</v>
+      </c>
+      <c r="B451" s="31" t="s">
+        <v>89</v>
+      </c>
+      <c r="C451" s="30">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="452">
+      <c r="A452" s="29" t="s">
+        <v>69</v>
+      </c>
+      <c r="B452" s="31" t="s">
+        <v>89</v>
+      </c>
+      <c r="C452" s="30">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="453">
+      <c r="A453" s="29" t="s">
+        <v>70</v>
+      </c>
+      <c r="B453" s="31" t="s">
+        <v>89</v>
+      </c>
+      <c r="C453" s="30">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="454">
+      <c r="A454" s="29" t="s">
+        <v>71</v>
+      </c>
+      <c r="B454" s="31" t="s">
+        <v>89</v>
+      </c>
+      <c r="C454" s="30">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="455">
+      <c r="A455" s="29" t="s">
+        <v>72</v>
+      </c>
+      <c r="B455" s="31" t="s">
+        <v>89</v>
+      </c>
+      <c r="C455" s="30">
+        <v>25.2</v>
+      </c>
+    </row>
+    <row r="456">
+      <c r="A456" s="29" t="s">
+        <v>73</v>
+      </c>
+      <c r="B456" s="31" t="s">
+        <v>89</v>
+      </c>
+      <c r="C456" s="30">
+        <v>4.2</v>
+      </c>
+    </row>
+    <row r="457">
+      <c r="A457" s="29" t="s">
+        <v>74</v>
+      </c>
+      <c r="B457" s="31" t="s">
+        <v>89</v>
+      </c>
+      <c r="C457" s="30">
+        <v>1.6</v>
+      </c>
+    </row>
+    <row r="458">
+      <c r="A458" s="29" t="s">
+        <v>75</v>
+      </c>
+      <c r="B458" s="31" t="s">
+        <v>89</v>
+      </c>
+      <c r="C458" s="30">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="459">
+      <c r="A459" s="29" t="s">
+        <v>76</v>
+      </c>
+      <c r="B459" s="31" t="s">
+        <v>89</v>
+      </c>
+      <c r="C459" s="30">
+        <v>1.8</v>
+      </c>
+    </row>
+    <row r="460">
+      <c r="A460" s="29" t="s">
+        <v>77</v>
+      </c>
+      <c r="B460" s="31" t="s">
+        <v>89</v>
+      </c>
+      <c r="C460" s="30">
+        <v>1.0</v>
+      </c>
+    </row>
+  </sheetData>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="0" summaryRight="0"/>
+  </sheetPr>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr customHeight="1" defaultColWidth="11.22" defaultRowHeight="15.0"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="28" t="s">
+        <v>90</v>
+      </c>
+      <c r="B1" s="34" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="28" t="s">
+        <v>92</v>
+      </c>
+      <c r="B2" s="35">
+        <v>10.5</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="28" t="s">
+        <v>93</v>
+      </c>
+      <c r="B3" s="35">
+        <v>3.2</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="28" t="s">
+        <v>94</v>
+      </c>
+      <c r="B4" s="35">
+        <v>0.7</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="28" t="s">
+        <v>95</v>
+      </c>
+      <c r="B5" s="35">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="28" t="s">
+        <v>96</v>
+      </c>
+      <c r="B6" s="35">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="28" t="s">
+        <v>97</v>
+      </c>
+      <c r="B7" s="35">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="28" t="s">
+        <v>98</v>
+      </c>
+      <c r="B8" s="35">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="28" t="s">
+        <v>99</v>
+      </c>
+      <c r="B9" s="35">
+        <v>0.0</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink r:id="rId1" ref="B1"/>
+  </hyperlinks>
+  <drawing r:id="rId2"/>
+</worksheet>
 </file>